--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecgo-my.sharepoint.com/personal/sonthaya_kan_ovecmail_org/Documents/web app/dcareclinic.com/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5956CC81-7A9A-4547-AD9E-8B52BEE02CE2}"/>
+  <xr:revisionPtr revIDLastSave="882" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CFECC25-D1FF-460E-9974-9310CD994661}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="302">
   <si>
     <t>No</t>
   </si>
@@ -285,9 +285,6 @@
     <t>course_pic</t>
   </si>
   <si>
-    <t>คอร์สประเภท</t>
-  </si>
-  <si>
     <t>course_status</t>
   </si>
   <si>
@@ -576,30 +573,12 @@
     <t>รหัสใบสั่งซื้อ</t>
   </si>
   <si>
-    <t>employee</t>
-  </si>
-  <si>
     <t>พนักงาน</t>
   </si>
   <si>
-    <t>emp_id</t>
-  </si>
-  <si>
     <t>รหัส พนง.</t>
   </si>
   <si>
-    <t>emp_fname</t>
-  </si>
-  <si>
-    <t>emp_lname</t>
-  </si>
-  <si>
-    <t>emp_nickname</t>
-  </si>
-  <si>
-    <t>emp_tel</t>
-  </si>
-  <si>
     <t>position_id</t>
   </si>
   <si>
@@ -630,9 +609,6 @@
     <t>รหัสพยาบาล</t>
   </si>
   <si>
-    <t>emp_status</t>
-  </si>
-  <si>
     <t>nurse_fname</t>
   </si>
   <si>
@@ -943,6 +919,30 @@
   </si>
   <si>
     <t>customer</t>
+  </si>
+  <si>
+    <t>users_fname</t>
+  </si>
+  <si>
+    <t>users_lname</t>
+  </si>
+  <si>
+    <t>users_nickname</t>
+  </si>
+  <si>
+    <t>users_tel</t>
+  </si>
+  <si>
+    <t>users_license</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ใช่งาน</t>
+  </si>
+  <si>
+    <t>รหัสผ่าน</t>
+  </si>
+  <si>
+    <t>ประเภทคอร์ส</t>
   </si>
 </sst>
 </file>
@@ -1077,12 +1077,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1397,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
-  <dimension ref="B2:I234"/>
+  <dimension ref="B2:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
         <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1464,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1481,10 +1479,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
         <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1495,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -1900,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
@@ -1937,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" t="s">
-        <v>182</v>
+        <v>286</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1954,16 +1952,16 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
       </c>
       <c r="F35">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -1971,16 +1969,16 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -1988,16 +1986,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
@@ -2005,16 +2003,16 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -2022,13 +2020,16 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -2036,2802 +2037,2864 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
+      <c r="B41" s="3">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" t="s">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="3">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="3">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="3">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="9">
+        <v>5</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52">
-        <v>50</v>
+      <c r="G52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>194</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>50</v>
+      </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
         <v>6</v>
       </c>
-      <c r="C57" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>7</v>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="G59" t="s">
-        <v>10</v>
+      <c r="F59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D60" t="s">
-        <v>219</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="3">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="9">
+        <v>6</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C62" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62">
-        <v>50</v>
+      <c r="G62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>222</v>
+        <v>203</v>
+      </c>
+      <c r="D64" t="s">
+        <v>211</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="3">
         <v>6</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>7</v>
+      <c r="C68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" t="s">
-        <v>10</v>
+      <c r="F69">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="3">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
-        <v>69</v>
-      </c>
-      <c r="D72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
+      <c r="G72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
-      <c r="F73">
-        <v>3</v>
+      <c r="G73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
-      </c>
-      <c r="F74">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="3">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
         <v>10</v>
       </c>
-      <c r="C78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
+      <c r="G78" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79">
-        <v>3</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="3">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="s">
         <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="3">
-        <v>2</v>
-      </c>
-      <c r="C84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84">
-        <v>100</v>
+      <c r="F83">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D85" t="s">
-        <v>87</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="3">
-        <v>2</v>
-      </c>
-      <c r="C90" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" t="s">
-        <v>9</v>
+      <c r="F89">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>93</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D92" t="s">
-        <v>95</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92">
-        <v>10</v>
+      <c r="G92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D94" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95">
         <v>100</v>
-      </c>
-      <c r="D95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95">
-        <v>200</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="3">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99">
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100">
         <v>5</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="3">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="3">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" t="s">
         <v>94</v>
       </c>
-      <c r="D102" t="s">
-        <v>95</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="3">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" t="s">
-        <v>138</v>
-      </c>
-      <c r="E103" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="3">
-        <v>11</v>
-      </c>
-      <c r="C105" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D107" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="3">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
-        <v>116</v>
-      </c>
-      <c r="D108" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108">
-        <v>100</v>
-      </c>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110" t="s">
-        <v>9</v>
+      <c r="G110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="3">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" t="s">
+        <v>121</v>
+      </c>
+      <c r="E114" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H116" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="3">
         <v>6</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>7</v>
+      <c r="C116" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="3">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>120</v>
+      </c>
+      <c r="D121" t="s">
         <v>121</v>
       </c>
-      <c r="D117" t="s">
-        <v>122</v>
-      </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="3">
-        <v>2</v>
-      </c>
-      <c r="C118" t="s">
-        <v>124</v>
-      </c>
-      <c r="D118" t="s">
-        <v>125</v>
-      </c>
-      <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="3">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>130</v>
-      </c>
-      <c r="D120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>129</v>
+      </c>
+      <c r="D124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" t="s">
+        <v>105</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="3">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" t="s">
-        <v>134</v>
-      </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="3">
-        <v>14</v>
-      </c>
-      <c r="C125" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="3">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
-        <v>143</v>
-      </c>
-      <c r="D128" t="s">
-        <v>144</v>
-      </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B129" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
-      </c>
-      <c r="E129" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C130" t="s">
-        <v>158</v>
-      </c>
-      <c r="D130" t="s">
-        <v>103</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130">
-        <v>4</v>
+      <c r="G130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
-      <c r="F131">
-        <v>4</v>
+      <c r="G131" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>143</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B133" s="3">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133">
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B135" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134">
         <v>4</v>
       </c>
-      <c r="G135" s="1" t="s">
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
         <v>5</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>7</v>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135" t="s">
+        <v>105</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D136" t="s">
-        <v>150</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="3">
-        <v>2</v>
-      </c>
-      <c r="C137" t="s">
-        <v>90</v>
-      </c>
-      <c r="D137" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="D138" t="s">
-        <v>66</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C139" t="s">
-        <v>151</v>
-      </c>
-      <c r="D139" t="s">
-        <v>152</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
+      <c r="G139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" t="s">
+        <v>149</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B142" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B142" s="3">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" t="s">
+        <v>66</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D143" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" s="3">
-        <v>2</v>
-      </c>
-      <c r="C144" t="s">
-        <v>114</v>
-      </c>
-      <c r="D144" t="s">
-        <v>115</v>
-      </c>
-      <c r="E144" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B145" s="3">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
-        <v>66</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C146" t="s">
-        <v>156</v>
-      </c>
-      <c r="D146" t="s">
-        <v>157</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
+      <c r="G146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" t="s">
+        <v>163</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D148" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B149" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B149" s="3">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" t="s">
+        <v>66</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="3">
-        <v>2</v>
-      </c>
-      <c r="C151" t="s">
-        <v>141</v>
-      </c>
-      <c r="D151" t="s">
-        <v>142</v>
-      </c>
-      <c r="E151" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="D152" t="s">
-        <v>66</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C153" t="s">
+      <c r="G153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
         <v>162</v>
       </c>
-      <c r="D153" t="s">
-        <v>166</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
+      <c r="D154" t="s">
+        <v>164</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="3">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>7</v>
+        <v>141</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B156" s="3">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" t="s">
+        <v>66</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D157" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B158" s="3">
-        <v>2</v>
-      </c>
-      <c r="C158" t="s">
-        <v>39</v>
-      </c>
-      <c r="D158" t="s">
-        <v>41</v>
-      </c>
-      <c r="E158" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" s="3">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C159" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D159" t="s">
-        <v>172</v>
-      </c>
-      <c r="E159" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B160" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C160" t="s">
-        <v>173</v>
-      </c>
-      <c r="D160" t="s">
-        <v>174</v>
-      </c>
-      <c r="E160" t="s">
-        <v>16</v>
+      <c r="G160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>167</v>
+      </c>
+      <c r="D161" t="s">
+        <v>169</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" s="3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B163" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B163" s="3">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" t="s">
+        <v>171</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D164" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B165" s="3">
-        <v>2</v>
-      </c>
-      <c r="C165" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" t="s">
-        <v>41</v>
-      </c>
-      <c r="E165" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B166" s="3">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C166" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D166" t="s">
-        <v>182</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B167" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C167" t="s">
-        <v>168</v>
-      </c>
-      <c r="D167" t="s">
-        <v>223</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
+      <c r="G167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B168" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="D168" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="E168" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="D169" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F169">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B170" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="D170" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" s="3"/>
+      <c r="B171" s="3">
+        <v>4</v>
+      </c>
       <c r="C171" t="s">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="D171" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="E171" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B173" s="3"/>
+      <c r="B173" s="3">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>218</v>
+      </c>
+      <c r="D173" t="s">
+        <v>216</v>
+      </c>
+      <c r="E173" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173">
+        <v>50</v>
+      </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="D174" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B175" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>7</v>
+        <v>217</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B175" s="3"/>
+      <c r="C175" t="s">
+        <v>268</v>
+      </c>
+      <c r="D175" t="s">
+        <v>267</v>
+      </c>
+      <c r="E175" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B176" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="D176" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
       </c>
-      <c r="G176" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B177" s="3">
-        <v>2</v>
-      </c>
-      <c r="C177" t="s">
-        <v>177</v>
-      </c>
-      <c r="D177" t="s">
-        <v>178</v>
-      </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
+      <c r="B177" s="3"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="D178" t="s">
-        <v>66</v>
-      </c>
-      <c r="E178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B179" s="3">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s">
-        <v>279</v>
-      </c>
-      <c r="D179" t="s">
-        <v>280</v>
-      </c>
-      <c r="E179" t="s">
-        <v>9</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B180" s="3">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>269</v>
+      </c>
+      <c r="D180" t="s">
+        <v>270</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="D181" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B182" s="3">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="D183" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="E183" t="s">
-        <v>9</v>
-      </c>
-      <c r="G183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B184" s="3">
-        <v>2</v>
-      </c>
-      <c r="C184" t="s">
-        <v>168</v>
-      </c>
-      <c r="D184" t="s">
-        <v>170</v>
-      </c>
-      <c r="E184" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B185" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="D185" t="s">
-        <v>265</v>
-      </c>
-      <c r="E185" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B186" s="3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C186" t="s">
-        <v>264</v>
-      </c>
-      <c r="D186" t="s">
-        <v>266</v>
-      </c>
-      <c r="E186" t="s">
-        <v>16</v>
+      <c r="G186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B187" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="E187" t="s">
-        <v>236</v>
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B188" s="3">
+        <v>2</v>
+      </c>
+      <c r="C188" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" t="s">
+        <v>169</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" s="3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D189" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B190" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F190" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B190" s="3">
         <v>4</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I190" s="2" t="s">
-        <v>7</v>
+      <c r="C190" t="s">
+        <v>256</v>
+      </c>
+      <c r="D190" t="s">
+        <v>258</v>
+      </c>
+      <c r="E190" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>239</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
       </c>
       <c r="E191" t="s">
-        <v>9</v>
-      </c>
-      <c r="G191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B193" s="3">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>229</v>
+      </c>
+      <c r="D193" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>231</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B192" s="3">
-        <v>2</v>
-      </c>
-      <c r="C192" t="s">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B196" s="3">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" t="s">
+        <v>226</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B197" s="3">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B198" s="3">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>65</v>
+      </c>
+      <c r="D198" t="s">
+        <v>66</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B199" s="3">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>188</v>
+      </c>
+      <c r="D199" t="s">
+        <v>189</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B200" s="3">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>234</v>
+      </c>
+      <c r="D200" t="s">
         <v>233</v>
-      </c>
-      <c r="D192" t="s">
-        <v>234</v>
-      </c>
-      <c r="E192" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B193" s="3">
-        <v>3</v>
-      </c>
-      <c r="C193" t="s">
-        <v>39</v>
-      </c>
-      <c r="D193" t="s">
-        <v>41</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B194" s="3">
-        <v>4</v>
-      </c>
-      <c r="C194" t="s">
-        <v>65</v>
-      </c>
-      <c r="D194" t="s">
-        <v>66</v>
-      </c>
-      <c r="E194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B195" s="3">
-        <v>5</v>
-      </c>
-      <c r="C195" t="s">
-        <v>195</v>
-      </c>
-      <c r="D195" t="s">
-        <v>196</v>
-      </c>
-      <c r="E195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B196" s="3">
-        <v>6</v>
-      </c>
-      <c r="C196" t="s">
-        <v>242</v>
-      </c>
-      <c r="D196" t="s">
-        <v>241</v>
-      </c>
-      <c r="E196" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B197" s="3">
-        <v>7</v>
-      </c>
-      <c r="C197" t="s">
-        <v>243</v>
-      </c>
-      <c r="D197" t="s">
-        <v>244</v>
-      </c>
-      <c r="E197" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B198" s="3">
-        <v>8</v>
-      </c>
-      <c r="C198" t="s">
-        <v>245</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E198" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B199" s="3">
-        <v>9</v>
-      </c>
-      <c r="C199" t="s">
-        <v>247</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E199" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B200" s="3">
-        <v>10</v>
-      </c>
-      <c r="C200" t="s">
-        <v>249</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E200" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B201" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>251</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>252</v>
+        <v>235</v>
+      </c>
+      <c r="D201" t="s">
+        <v>236</v>
       </c>
       <c r="E201" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B202" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>258</v>
-      </c>
-      <c r="D202" t="s">
-        <v>253</v>
+        <v>237</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B203" s="3">
+        <v>9</v>
+      </c>
+      <c r="C203" t="s">
+        <v>239</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E203" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B204" s="3">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>241</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E204" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B205" s="3">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>243</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E205" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B206" s="3">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>250</v>
+      </c>
+      <c r="D206" t="s">
+        <v>245</v>
+      </c>
+      <c r="E206" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B203" s="3">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B207" s="3">
         <v>13</v>
       </c>
-      <c r="C203" t="s">
-        <v>259</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="C207" t="s">
+        <v>251</v>
+      </c>
+      <c r="D207" t="s">
         <v>7</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E207" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B204" s="3">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B208" s="3">
         <v>14</v>
       </c>
-      <c r="C204" t="s">
-        <v>260</v>
-      </c>
-      <c r="D204" t="s">
-        <v>254</v>
-      </c>
-      <c r="E204" t="s">
-        <v>12</v>
-      </c>
-      <c r="F204">
+      <c r="C208" t="s">
+        <v>252</v>
+      </c>
+      <c r="D208" t="s">
+        <v>246</v>
+      </c>
+      <c r="E208" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208">
         <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B205" s="3">
-        <v>15</v>
-      </c>
-      <c r="C205" t="s">
-        <v>261</v>
-      </c>
-      <c r="D205" t="s">
-        <v>255</v>
-      </c>
-      <c r="E205" t="s">
-        <v>12</v>
-      </c>
-      <c r="F205">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B206" s="3">
-        <v>16</v>
-      </c>
-      <c r="C206" t="s">
-        <v>262</v>
-      </c>
-      <c r="D206" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E206" t="s">
-        <v>12</v>
-      </c>
-      <c r="F206">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B207" s="3">
-        <v>17</v>
-      </c>
-      <c r="C207" t="s">
-        <v>257</v>
-      </c>
-      <c r="D207" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B209" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D209" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="210" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B210" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>7</v>
+        <v>247</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B210" s="3">
+        <v>16</v>
+      </c>
+      <c r="C210" t="s">
+        <v>254</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E210" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210">
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B211" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>269</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>270</v>
+        <v>249</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="G211" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="3">
-        <v>2</v>
-      </c>
-      <c r="C212" t="s">
-        <v>239</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E212" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B213" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C213" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D213" t="s">
-        <v>234</v>
-      </c>
-      <c r="E213" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B214" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C214" t="s">
-        <v>39</v>
-      </c>
-      <c r="D214" t="s">
-        <v>41</v>
-      </c>
-      <c r="E214" t="s">
-        <v>9</v>
+      <c r="G214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B215" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>65</v>
-      </c>
-      <c r="D215" t="s">
-        <v>66</v>
+        <v>261</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="E215" t="s">
         <v>9</v>
+      </c>
+      <c r="G215" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B216" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>271</v>
-      </c>
-      <c r="D216" t="s">
-        <v>272</v>
+        <v>231</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E216" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B217" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="D217" t="s">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="E217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B218" s="3">
+        <v>4</v>
+      </c>
+      <c r="C218" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218" t="s">
+        <v>41</v>
+      </c>
+      <c r="E218" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B219" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="D219" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B220" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H220" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B220" s="3">
         <v>6</v>
       </c>
-      <c r="I220" s="2" t="s">
-        <v>7</v>
+      <c r="C220" t="s">
+        <v>263</v>
+      </c>
+      <c r="D220" t="s">
+        <v>264</v>
+      </c>
+      <c r="E220" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B221" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>283</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
-      </c>
-      <c r="G221" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B222" s="3">
-        <v>2</v>
-      </c>
-      <c r="C222" t="s">
-        <v>284</v>
-      </c>
-      <c r="D222" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B223" s="3">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D223" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B224" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B224" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F224" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C224" t="s">
-        <v>290</v>
-      </c>
-      <c r="D224" t="s">
-        <v>291</v>
+      <c r="G224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B225" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="E225" t="s">
         <v>9</v>
       </c>
+      <c r="G225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" t="s">
+        <v>276</v>
+      </c>
+      <c r="D226" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B227" s="10">
-        <v>23</v>
+      <c r="B227" s="3">
+        <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D227" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B228" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F228" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B228" s="3">
         <v>4</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>7</v>
+      <c r="C228" t="s">
+        <v>282</v>
+      </c>
+      <c r="D228" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B229" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="E229" t="s">
         <v>9</v>
-      </c>
-      <c r="G229" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B230" s="9">
-        <v>2</v>
-      </c>
-      <c r="C230" t="s">
-        <v>295</v>
-      </c>
-      <c r="E230" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230">
-        <v>50</v>
       </c>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="9">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C231" t="s">
-        <v>297</v>
-      </c>
-      <c r="E231" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231">
+        <v>284</v>
+      </c>
+      <c r="D231" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B232" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B233" s="3">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>286</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B234" s="3">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>287</v>
+      </c>
+      <c r="E234" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234">
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="3">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B235" s="3">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>289</v>
+      </c>
+      <c r="E235" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B236" s="3">
         <v>4</v>
       </c>
-      <c r="C232" t="s">
-        <v>296</v>
-      </c>
-      <c r="E232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="9">
+      <c r="C236" t="s">
+        <v>288</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B237" s="3">
         <v>5</v>
       </c>
-      <c r="C233" t="s">
-        <v>298</v>
-      </c>
-      <c r="D233" t="s">
-        <v>299</v>
-      </c>
-      <c r="E233" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B234" s="9">
+      <c r="C237" t="s">
+        <v>290</v>
+      </c>
+      <c r="D237" t="s">
+        <v>291</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B238" s="3">
         <v>6</v>
       </c>
-      <c r="C234" t="s">
-        <v>300</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="C238" t="s">
+        <v>292</v>
+      </c>
+      <c r="D238" t="s">
         <v>20</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E238" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4845,13 +4908,13 @@
           <x14:formula1>
             <xm:f>Sheet3!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G69:G74 G4 G83 G164 G89:G90 G107 G117 G122 G102:G104 G127 G136 G143 G150 G157 G9:G31 G34:G35 G37:G39 G44:G46 G41 G49:G56 G59:G66 G183 G191 G211 G176:G178 G221 G229</xm:sqref>
+          <xm:sqref>G73:G78 G4 G87 G168 G93:G94 G111 G121 G126 G106:G108 G131 G140 G147 G154 G161 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G187 G195 G215 G180:G182 G225 G233 G34:G37 G44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A04974-1981-4BA4-B0FF-10FFE7E02263}">
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E69:E79 E4:E5 E83:E85 E211:E217 E89:E98 E107:E113 E117:E118 E122:E123 E102:E104 E127:E131 E136:E139 E143:E146 E150:E153 E157:E160 E9:E31 E34:E41 E44:E46 E49:E56 E59:E66 E191:E207 E183:E186 E164:E173 E176:E179 E221 E225 E229:E234</xm:sqref>
+          <xm:sqref>E73:E83 E4:E5 E87:E89 E215:E221 E93:E102 E111:E117 E121:E122 E126:E127 E106:E108 E131:E135 E140:E143 E147:E150 E154:E157 E161:E164 E9:E31 E233:E238 E48:E50 E53:E60 E63:E70 E195:E211 E187:E190 E168:E177 E180:E183 E225 E229 E34:E45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecgo-my.sharepoint.com/personal/sonthaya_kan_ovecmail_org/Documents/web app/dcareclinic.com/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="882" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CFECC25-D1FF-460E-9974-9310CD994661}"/>
+  <xr:revisionPtr revIDLastSave="887" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FAC8DF-1753-4EB5-A2A1-3D6B9888C0F3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="304">
   <si>
     <t>No</t>
   </si>
@@ -943,6 +943,12 @@
   </si>
   <si>
     <t>ประเภทคอร์ส</t>
+  </si>
+  <si>
+    <t>course_price</t>
+  </si>
+  <si>
+    <t>ราคาคอร์ส</t>
   </si>
 </sst>
 </file>
@@ -1096,6 +1102,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
-  <dimension ref="B2:I238"/>
+  <dimension ref="B2:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85:G89"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2606,65 +2616,66 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="3">
-        <v>5</v>
-      </c>
+      <c r="B77" s="3"/>
       <c r="C77" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>71</v>
+        <v>303</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -2672,282 +2683,279 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
         <v>11</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>82</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>20</v>
       </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83">
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="3">
         <v>8</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>73</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" t="s">
-        <v>79</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="3">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>85</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>86</v>
       </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-      <c r="F89">
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="3">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="3">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
         <v>87</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98">
-        <v>200</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
         <v>12</v>
@@ -2958,231 +2966,234 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="3">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="3">
         <v>10</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>103</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>20</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="3">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="3">
         <v>10</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>134</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>93</v>
-      </c>
-      <c r="D106" t="s">
-        <v>94</v>
-      </c>
-      <c r="E106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
         <v>136</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>137</v>
       </c>
-      <c r="E107" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107">
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108">
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
-    </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="3">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="3">
         <v>11</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>112</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="3">
-        <v>1</v>
-      </c>
-      <c r="C111" t="s">
-        <v>113</v>
-      </c>
-      <c r="D111" t="s">
-        <v>114</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D114" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3190,13 +3201,13 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3204,274 +3215,271 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="3">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
         <v>7</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>128</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>20</v>
       </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="3">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
         <v>122</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="3">
-        <v>1</v>
-      </c>
-      <c r="C121" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
         <v>123</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>124</v>
       </c>
-      <c r="E122" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122">
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123">
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
         <v>13</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>129</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I125" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="3">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>131</v>
-      </c>
-      <c r="D126" t="s">
-        <v>105</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
         <v>132</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>133</v>
       </c>
-      <c r="E127" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127">
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128">
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B129" s="3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
         <v>14</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>138</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B131" s="3">
-        <v>1</v>
-      </c>
-      <c r="C131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D131" t="s">
-        <v>141</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D133" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E133" t="s">
         <v>12</v>
       </c>
       <c r="F133">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E134" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D135" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -3482,92 +3490,95 @@
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" s="3">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136" t="s">
+        <v>105</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="3">
         <v>6</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>159</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B138" s="3">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="3">
         <v>15</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>146</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D139" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" t="s">
-        <v>148</v>
-      </c>
-      <c r="D140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="D141" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
@@ -3575,95 +3586,95 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="3">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B144" s="3">
         <v>4</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>150</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D144" t="s">
         <v>151</v>
       </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B145" s="3">
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B146" s="3">
         <v>16</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>152</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D146" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="D147" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="3">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>154</v>
-      </c>
-      <c r="D147" t="s">
-        <v>163</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D149" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -3671,95 +3682,95 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="3">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" t="s">
+        <v>66</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B151" s="3">
         <v>4</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>155</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>156</v>
       </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B152" s="3">
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B153" s="3">
         <v>17</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
         <v>160</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="D154" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="3">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>162</v>
-      </c>
-      <c r="D154" t="s">
-        <v>164</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="G154" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D156" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
@@ -3767,191 +3778,191 @@
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="3">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" t="s">
+        <v>66</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B158" s="3">
         <v>4</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>161</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>165</v>
       </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B159" s="3">
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B160" s="3">
         <v>18</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>166</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B160" s="1" t="s">
+    <row r="161" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B161" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="D161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B161" s="3">
-        <v>1</v>
-      </c>
-      <c r="C161" t="s">
-        <v>167</v>
-      </c>
-      <c r="D161" t="s">
-        <v>169</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="G161" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D162" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B163" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="E163" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" s="3">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" t="s">
+        <v>171</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B165" s="3">
         <v>4</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>172</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>173</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E165" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B166" s="3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B167" s="3">
         <v>19</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>174</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E167" s="1" t="s">
+      <c r="D168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G168" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="I168" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B168" s="3">
-        <v>1</v>
-      </c>
-      <c r="C168" t="s">
-        <v>176</v>
-      </c>
-      <c r="D168" t="s">
-        <v>177</v>
-      </c>
-      <c r="E168" t="s">
-        <v>9</v>
-      </c>
-      <c r="G168" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
+      </c>
+      <c r="G169" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B170" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="D170" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
@@ -3959,13 +3970,13 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="D171" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
@@ -3973,155 +3984,155 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="D172" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E172" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D173" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="3">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>218</v>
+      </c>
+      <c r="D174" t="s">
+        <v>216</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B175" s="3">
         <v>7</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>219</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>217</v>
       </c>
-      <c r="E174" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B175" s="3"/>
-      <c r="C175" t="s">
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B176" s="3"/>
+      <c r="C176" t="s">
         <v>268</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>267</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E176" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" s="3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B177" s="3">
         <v>8</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>220</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>20</v>
       </c>
-      <c r="E176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B177" s="3"/>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B178" s="3">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B179" s="3">
         <v>20</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C179" t="s">
         <v>265</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="179" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B179" s="1" t="s">
+    <row r="180" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="D180" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I179" s="2" t="s">
+      <c r="I180" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B180" s="3">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
-        <v>269</v>
-      </c>
-      <c r="D180" t="s">
-        <v>270</v>
-      </c>
-      <c r="E180" t="s">
-        <v>9</v>
-      </c>
-      <c r="G180" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
+      </c>
+      <c r="G181" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="D182" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
@@ -4132,202 +4143,202 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" t="s">
+        <v>66</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B184" s="3">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
         <v>271</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>272</v>
       </c>
-      <c r="E183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B185" s="3">
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B186" s="3">
         <v>21</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>223</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B186" s="1" t="s">
+    <row r="187" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B187" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E186" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="I187" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B187" s="3">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>225</v>
-      </c>
-      <c r="D187" t="s">
-        <v>226</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B188" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="D188" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="D189" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B190" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E190" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" s="3">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>256</v>
+      </c>
+      <c r="D191" t="s">
+        <v>258</v>
+      </c>
+      <c r="E191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B192" s="3">
         <v>5</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>20</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E192" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B193" s="3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B194" s="3">
         <v>22</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>229</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B194" s="1" t="s">
+    <row r="195" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B195" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E194" s="1" t="s">
+      <c r="D195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H194" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I194" s="2" t="s">
+      <c r="I195" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B195" s="3">
-        <v>1</v>
-      </c>
-      <c r="C195" t="s">
-        <v>231</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E195" t="s">
-        <v>9</v>
-      </c>
-      <c r="G195" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B196" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>225</v>
-      </c>
-      <c r="D196" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B197" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D197" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
@@ -4335,13 +4346,13 @@
     </row>
     <row r="198" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B198" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D198" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -4349,13 +4360,13 @@
     </row>
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B199" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D199" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -4363,27 +4374,27 @@
     </row>
     <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B200" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="D200" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E200" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B201" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D201" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E201" t="s">
         <v>17</v>
@@ -4391,13 +4402,13 @@
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B202" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>237</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="D202" t="s">
+        <v>236</v>
       </c>
       <c r="E202" t="s">
         <v>17</v>
@@ -4405,13 +4416,13 @@
     </row>
     <row r="203" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B203" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>239</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
@@ -4419,13 +4430,13 @@
     </row>
     <row r="204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B204" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>241</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E204" t="s">
         <v>17</v>
@@ -4433,13 +4444,13 @@
     </row>
     <row r="205" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B205" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E205" t="s">
         <v>17</v>
@@ -4447,27 +4458,27 @@
     </row>
     <row r="206" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B206" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>250</v>
-      </c>
-      <c r="D206" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="E206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B207" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="E207" t="s">
         <v>18</v>
@@ -4475,30 +4486,27 @@
     </row>
     <row r="208" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B208" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D208" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B209" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D209" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -4509,112 +4517,115 @@
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B210" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>254</v>
-      </c>
-      <c r="D210" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="D210" t="s">
+        <v>247</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
       </c>
       <c r="F210">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B211" s="3">
+        <v>16</v>
+      </c>
+      <c r="C211" t="s">
+        <v>254</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B212" s="3">
         <v>17</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>249</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>20</v>
       </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B213" s="3">
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B214" s="3">
         <v>23</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>259</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D214" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B214" s="1" t="s">
+    <row r="215" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E214" s="1" t="s">
+      <c r="D215" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F215" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G215" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I214" s="2" t="s">
+      <c r="I215" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>261</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E215" t="s">
-        <v>9</v>
-      </c>
-      <c r="G215" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B216" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E216" t="s">
         <v>9</v>
+      </c>
+      <c r="G216" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B217" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" t="s">
-        <v>225</v>
-      </c>
-      <c r="D217" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E217" t="s">
         <v>9</v>
@@ -4622,13 +4633,13 @@
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B218" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D218" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E218" t="s">
         <v>9</v>
@@ -4636,13 +4647,13 @@
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B219" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
@@ -4650,207 +4661,207 @@
     </row>
     <row r="220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B220" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="D220" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="E220" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B221" s="3">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>263</v>
+      </c>
+      <c r="D221" t="s">
+        <v>264</v>
+      </c>
+      <c r="E221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B222" s="3">
         <v>7</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>273</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D222" t="s">
         <v>20</v>
       </c>
-      <c r="E221" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B223" s="3">
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B224" s="3">
         <v>23</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>274</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D224" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B224" s="1" t="s">
+    <row r="225" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B225" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E224" s="1" t="s">
+      <c r="D225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I224" s="2" t="s">
+      <c r="I225" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B225" s="3">
-        <v>1</v>
-      </c>
-      <c r="C225" t="s">
-        <v>275</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E225" t="s">
-        <v>9</v>
-      </c>
-      <c r="G225" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B226" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>276</v>
-      </c>
-      <c r="D226" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D227" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B228" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D228" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B229" s="3">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>282</v>
+      </c>
+      <c r="D229" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B230" s="3">
         <v>5</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>261</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D230" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B231" s="9">
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B232" s="9">
         <v>23</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>284</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B232" s="1" t="s">
+    <row r="233" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B233" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E232" s="1" t="s">
+      <c r="D233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F233" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="H233" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I232" s="2" t="s">
+      <c r="I233" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B233" s="3">
-        <v>1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>286</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E233" t="s">
-        <v>9</v>
-      </c>
-      <c r="G233" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B234" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="E234" t="s">
-        <v>12</v>
-      </c>
-      <c r="F234">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="G234" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E235" t="s">
         <v>12</v>
@@ -4861,24 +4872,24 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B236" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F236">
+        <v>50</v>
       </c>
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B237" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>290</v>
-      </c>
-      <c r="D237" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E237" t="s">
         <v>9</v>
@@ -4886,15 +4897,29 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B238" s="3">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>290</v>
+      </c>
+      <c r="D238" t="s">
+        <v>291</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B239" s="3">
         <v>6</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>292</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>20</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E239" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4908,13 +4933,13 @@
           <x14:formula1>
             <xm:f>Sheet3!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G73:G78 G4 G87 G168 G93:G94 G111 G121 G126 G106:G108 G131 G140 G147 G154 G161 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G187 G195 G215 G180:G182 G225 G233 G34:G37 G44</xm:sqref>
+          <xm:sqref>G73:G79 G4 G88 G169 G94:G95 G112 G122 G127 G107:G109 G132 G141 G148 G155 G162 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G188 G196 G216 G181:G183 G226 G234 G34:G37 G44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A04974-1981-4BA4-B0FF-10FFE7E02263}">
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E73:E83 E4:E5 E87:E89 E215:E221 E93:E102 E111:E117 E121:E122 E126:E127 E106:E108 E131:E135 E140:E143 E147:E150 E154:E157 E161:E164 E9:E31 E233:E238 E48:E50 E53:E60 E63:E70 E195:E211 E187:E190 E168:E177 E180:E183 E225 E229 E34:E45</xm:sqref>
+          <xm:sqref>E73:E84 E4:E5 E88:E90 E216:E222 E94:E103 E112:E118 E122:E123 E127:E128 E107:E109 E132:E136 E141:E144 E148:E151 E155:E158 E162:E165 E9:E31 E234:E239 E48:E50 E53:E60 E63:E70 E196:E212 E188:E191 E169:E178 E181:E184 E226 E230 E34:E45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="887" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FAC8DF-1753-4EB5-A2A1-3D6B9888C0F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1102,10 +1102,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,29 +1404,29 @@
   <dimension ref="B2:I239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="14.25" customWidth="1"/>
-    <col min="20" max="22" width="20.25" customWidth="1"/>
-    <col min="23" max="24" width="17.625" customWidth="1"/>
-    <col min="25" max="25" width="19.75" customWidth="1"/>
-    <col min="26" max="26" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" customWidth="1"/>
+    <col min="15" max="15" width="11.69921875" customWidth="1"/>
+    <col min="16" max="16" width="15.8984375" customWidth="1"/>
+    <col min="17" max="17" width="16.8984375" customWidth="1"/>
+    <col min="18" max="18" width="14.09765625" customWidth="1"/>
+    <col min="19" max="19" width="14.19921875" customWidth="1"/>
+    <col min="20" max="22" width="20.19921875" customWidth="1"/>
+    <col min="23" max="24" width="17.59765625" customWidth="1"/>
+    <col min="25" max="25" width="19.69921875" customWidth="1"/>
+    <col min="26" max="26" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1441,7 +1437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1484,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1498,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1509,7 +1505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1552,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1569,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1617,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1634,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1651,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1668,7 +1664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1685,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1722,7 +1718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>12</v>
       </c>
@@ -1739,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>13</v>
       </c>
@@ -1753,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>14</v>
       </c>
@@ -1767,7 +1763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>15</v>
       </c>
@@ -1781,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>16</v>
       </c>
@@ -1798,7 +1794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>17</v>
       </c>
@@ -1815,7 +1811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>18</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>19</v>
       </c>
@@ -1849,7 +1845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>20</v>
       </c>
@@ -1866,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>21</v>
       </c>
@@ -1883,7 +1879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>22</v>
       </c>
@@ -1900,10 +1896,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>3</v>
       </c>
@@ -1914,7 +1910,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>1</v>
       </c>
@@ -1957,7 +1953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>2</v>
       </c>
@@ -1974,7 +1970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>3</v>
       </c>
@@ -1991,7 +1987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>4</v>
       </c>
@@ -2008,7 +2004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>5</v>
       </c>
@@ -2025,7 +2021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>6</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>7</v>
       </c>
@@ -2059,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>8</v>
       </c>
@@ -2073,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>9</v>
       </c>
@@ -2090,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>10</v>
       </c>
@@ -2107,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>11</v>
       </c>
@@ -2121,10 +2117,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>4</v>
       </c>
@@ -2135,7 +2131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2178,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>2</v>
       </c>
@@ -2195,10 +2191,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
         <v>5</v>
       </c>
@@ -2209,7 +2205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>2</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>3</v>
       </c>
@@ -2286,7 +2282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>4</v>
       </c>
@@ -2303,7 +2299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>5</v>
       </c>
@@ -2320,7 +2316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>6</v>
       </c>
@@ -2337,7 +2333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>7</v>
       </c>
@@ -2354,10 +2350,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>6</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2394,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>2</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>3</v>
       </c>
@@ -2445,7 +2441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>4</v>
       </c>
@@ -2462,7 +2458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>5</v>
       </c>
@@ -2479,7 +2475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>6</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>7</v>
       </c>
@@ -2513,10 +2509,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>7</v>
       </c>
@@ -2527,7 +2523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>1</v>
       </c>
@@ -2570,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>2</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>3</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>4</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" t="s">
         <v>302</v>
@@ -2630,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -2647,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -2695,7 +2691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -2712,7 +2708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -2743,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>8</v>
       </c>
@@ -2754,7 +2750,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>1</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>2</v>
       </c>
@@ -2814,7 +2810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>3</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>9</v>
       </c>
@@ -2842,7 +2838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <v>1</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <v>2</v>
       </c>
@@ -2899,7 +2895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <v>3</v>
       </c>
@@ -2916,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <v>4</v>
       </c>
@@ -2933,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>5</v>
       </c>
@@ -2947,7 +2943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>6</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>7</v>
       </c>
@@ -2981,7 +2977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>8</v>
       </c>
@@ -2998,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>9</v>
       </c>
@@ -3012,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>10</v>
       </c>
@@ -3026,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>10</v>
       </c>
@@ -3037,7 +3033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>2</v>
       </c>
@@ -3097,10 +3093,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>11</v>
       </c>
@@ -3111,7 +3107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -3154,7 +3150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>2</v>
       </c>
@@ -3171,7 +3167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>3</v>
       </c>
@@ -3185,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>4</v>
       </c>
@@ -3199,7 +3195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>5</v>
       </c>
@@ -3213,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>6</v>
       </c>
@@ -3227,7 +3223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>7</v>
       </c>
@@ -3241,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>12</v>
       </c>
@@ -3252,7 +3248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -3295,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -3312,7 +3308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>13</v>
       </c>
@@ -3323,7 +3319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -3366,7 +3362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>2</v>
       </c>
@@ -3383,7 +3379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>14</v>
       </c>
@@ -3394,7 +3390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3420,7 +3416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -3437,7 +3433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>2</v>
       </c>
@@ -3454,7 +3450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>3</v>
       </c>
@@ -3471,7 +3467,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>4</v>
       </c>
@@ -3488,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>5</v>
       </c>
@@ -3505,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>6</v>
       </c>
@@ -3516,7 +3512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>15</v>
       </c>
@@ -3527,7 +3523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>1</v>
       </c>
@@ -3570,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>2</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>3</v>
       </c>
@@ -3598,7 +3594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>4</v>
       </c>
@@ -3612,7 +3608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>16</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>1</v>
       </c>
@@ -3666,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>2</v>
       </c>
@@ -3680,7 +3676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>3</v>
       </c>
@@ -3694,7 +3690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>4</v>
       </c>
@@ -3708,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>17</v>
       </c>
@@ -3719,7 +3715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>1</v>
       </c>
@@ -3762,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>2</v>
       </c>
@@ -3776,7 +3772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>3</v>
       </c>
@@ -3790,7 +3786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>4</v>
       </c>
@@ -3804,7 +3800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>18</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B161" s="1" t="s">
         <v>0</v>
       </c>
@@ -3841,7 +3837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>1</v>
       </c>
@@ -3858,7 +3854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>2</v>
       </c>
@@ -3872,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>3</v>
       </c>
@@ -3886,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>4</v>
       </c>
@@ -3900,7 +3896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>19</v>
       </c>
@@ -3911,7 +3907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>1</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>2</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>3</v>
       </c>
@@ -3982,7 +3978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>4</v>
       </c>
@@ -3996,7 +3992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>5</v>
       </c>
@@ -4010,7 +4006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>6</v>
       </c>
@@ -4027,7 +4023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>7</v>
       </c>
@@ -4041,7 +4037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
       <c r="C176" t="s">
         <v>268</v>
@@ -4053,7 +4049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>8</v>
       </c>
@@ -4067,10 +4063,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>20</v>
       </c>
@@ -4081,7 +4077,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
@@ -4107,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>1</v>
       </c>
@@ -4124,7 +4120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>2</v>
       </c>
@@ -4138,7 +4134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>3</v>
       </c>
@@ -4152,7 +4148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -4166,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>21</v>
       </c>
@@ -4177,7 +4173,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B187" s="1" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>1</v>
       </c>
@@ -4220,7 +4216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>2</v>
       </c>
@@ -4234,7 +4230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>3</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>4</v>
       </c>
@@ -4262,7 +4258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>5</v>
       </c>
@@ -4276,7 +4272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>22</v>
       </c>
@@ -4287,7 +4283,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B195" s="1" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>1</v>
       </c>
@@ -4330,7 +4326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>2</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>3</v>
       </c>
@@ -4358,7 +4354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>4</v>
       </c>
@@ -4372,7 +4368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>5</v>
       </c>
@@ -4386,7 +4382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>6</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>7</v>
       </c>
@@ -4414,7 +4410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>8</v>
       </c>
@@ -4428,7 +4424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>9</v>
       </c>
@@ -4442,7 +4438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>10</v>
       </c>
@@ -4456,7 +4452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>11</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>12</v>
       </c>
@@ -4484,7 +4480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>13</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>14</v>
       </c>
@@ -4515,7 +4511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>15</v>
       </c>
@@ -4532,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>16</v>
       </c>
@@ -4549,7 +4545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>17</v>
       </c>
@@ -4563,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>23</v>
       </c>
@@ -4574,7 +4570,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -4617,7 +4613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>2</v>
       </c>
@@ -4631,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>3</v>
       </c>
@@ -4645,7 +4641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <v>4</v>
       </c>
@@ -4659,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <v>5</v>
       </c>
@@ -4673,7 +4669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>6</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>7</v>
       </c>
@@ -4701,7 +4697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>23</v>
       </c>
@@ -4712,7 +4708,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B225" s="1" t="s">
         <v>0</v>
       </c>
@@ -4738,7 +4734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>2</v>
       </c>
@@ -4766,7 +4762,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
         <v>3</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
         <v>4</v>
       </c>
@@ -4788,7 +4784,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
         <v>5</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="9">
         <v>23</v>
       </c>
@@ -4813,7 +4809,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
       <c r="B233" s="1" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +4835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -4856,7 +4852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="3">
         <v>2</v>
       </c>
@@ -4870,7 +4866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B236" s="3">
         <v>3</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B237" s="3">
         <v>4</v>
       </c>
@@ -4895,7 +4891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="3">
         <v>5</v>
       </c>
@@ -4909,7 +4905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="3">
         <v>6</v>
       </c>
@@ -4955,9 +4951,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -4965,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4973,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -4981,32 +4977,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="887" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FAC8DF-1753-4EB5-A2A1-3D6B9888C0F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1403,30 +1403,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
   <dimension ref="B2:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130:G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" customWidth="1"/>
-    <col min="15" max="15" width="11.69921875" customWidth="1"/>
-    <col min="16" max="16" width="15.8984375" customWidth="1"/>
-    <col min="17" max="17" width="16.8984375" customWidth="1"/>
-    <col min="18" max="18" width="14.09765625" customWidth="1"/>
-    <col min="19" max="19" width="14.19921875" customWidth="1"/>
-    <col min="20" max="22" width="20.19921875" customWidth="1"/>
-    <col min="23" max="24" width="17.59765625" customWidth="1"/>
-    <col min="25" max="25" width="19.69921875" customWidth="1"/>
-    <col min="26" max="26" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="14.25" customWidth="1"/>
+    <col min="20" max="22" width="20.25" customWidth="1"/>
+    <col min="23" max="24" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="19.75" customWidth="1"/>
+    <col min="26" max="26" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>12</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>13</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>14</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>15</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>16</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>17</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>18</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>19</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>20</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>21</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>22</v>
       </c>
@@ -1896,10 +1896,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>3</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>1</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>2</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>3</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>4</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <v>6</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <v>7</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <v>8</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>9</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <v>10</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <v>11</v>
       </c>
@@ -2117,10 +2117,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>4</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <v>2</v>
       </c>
@@ -2191,10 +2191,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>5</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <v>2</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <v>3</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
         <v>4</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
         <v>5</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <v>6</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <v>7</v>
       </c>
@@ -2350,10 +2350,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>6</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <v>2</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
         <v>3</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
         <v>4</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="3">
         <v>5</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="3">
         <v>6</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="3">
         <v>7</v>
       </c>
@@ -2509,10 +2509,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="3">
         <v>7</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="3">
         <v>1</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="3">
         <v>2</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="3">
         <v>3</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="3">
         <v>4</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
       <c r="C77" t="s">
         <v>302</v>
@@ -2626,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" s="3">
         <v>8</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="3">
         <v>1</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="3">
         <v>2</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="3">
         <v>3</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="3">
         <v>9</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="3">
         <v>1</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
         <v>2</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
         <v>3</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" s="3">
         <v>4</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="3">
         <v>5</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" s="3">
         <v>6</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="3">
         <v>7</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="3">
         <v>8</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="3">
         <v>9</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="3">
         <v>10</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="3">
         <v>10</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
         <v>1</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="3">
         <v>2</v>
       </c>
@@ -3093,10 +3093,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" s="3">
         <v>11</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
         <v>2</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
         <v>3</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
         <v>4</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="3">
         <v>5</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="3">
         <v>6</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="3">
         <v>7</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="3">
         <v>12</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="3">
         <v>1</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="3">
         <v>13</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="3">
         <v>2</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" s="3">
         <v>14</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="3">
         <v>2</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="3">
         <v>3</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" s="3">
         <v>4</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" s="3">
         <v>5</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" s="3">
         <v>6</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" s="3">
         <v>15</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="3">
         <v>1</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="3">
         <v>2</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="3">
         <v>3</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="3">
         <v>4</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B146" s="3">
         <v>16</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="3">
         <v>1</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="3">
         <v>2</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="3">
         <v>3</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="3">
         <v>4</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="3">
         <v>17</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="3">
         <v>1</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" s="3">
         <v>2</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="3">
         <v>3</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="3">
         <v>4</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" s="3">
         <v>18</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="1" t="s">
         <v>0</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" s="3">
         <v>1</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B163" s="3">
         <v>2</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" s="3">
         <v>3</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" s="3">
         <v>4</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" s="3">
         <v>19</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="168" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="3">
         <v>1</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B170" s="3">
         <v>2</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" s="3">
         <v>3</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="3">
         <v>4</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" s="3">
         <v>5</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="3">
         <v>6</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B175" s="3">
         <v>7</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B176" s="3"/>
       <c r="C176" t="s">
         <v>268</v>
@@ -4049,7 +4049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" s="3">
         <v>8</v>
       </c>
@@ -4063,10 +4063,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B179" s="3">
         <v>20</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="180" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="3">
         <v>1</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="3">
         <v>2</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="3">
         <v>3</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B186" s="3">
         <v>21</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="187" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="1" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B188" s="3">
         <v>1</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" s="3">
         <v>2</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B190" s="3">
         <v>3</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" s="3">
         <v>4</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B192" s="3">
         <v>5</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B194" s="3">
         <v>22</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="195" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="1" t="s">
         <v>0</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B196" s="3">
         <v>1</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B197" s="3">
         <v>2</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B198" s="3">
         <v>3</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B199" s="3">
         <v>4</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B200" s="3">
         <v>5</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B201" s="3">
         <v>6</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B202" s="3">
         <v>7</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B203" s="3">
         <v>8</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B204" s="3">
         <v>9</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B205" s="3">
         <v>10</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B206" s="3">
         <v>11</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B207" s="3">
         <v>12</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B208" s="3">
         <v>13</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B209" s="3">
         <v>14</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B210" s="3">
         <v>15</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B211" s="3">
         <v>16</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B212" s="3">
         <v>17</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B214" s="3">
         <v>23</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="215" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="1" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B217" s="3">
         <v>2</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B218" s="3">
         <v>3</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B219" s="3">
         <v>4</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B220" s="3">
         <v>5</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B221" s="3">
         <v>6</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B222" s="3">
         <v>7</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B224" s="3">
         <v>23</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="225" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="1" t="s">
         <v>0</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B226" s="3">
         <v>1</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="3">
         <v>2</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B228" s="3">
         <v>3</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B229" s="3">
         <v>4</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B230" s="3">
         <v>5</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B232" s="9">
         <v>23</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="233" spans="2:9" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="233" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="B233" s="1" t="s">
         <v>0</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B234" s="3">
         <v>1</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="3">
         <v>2</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B236" s="3">
         <v>3</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B237" s="3">
         <v>4</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B238" s="3">
         <v>5</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="3">
         <v>6</v>
       </c>
@@ -4951,9 +4951,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -4977,32 +4977,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecgo-my.sharepoint.com/personal/sonthaya_kan_ovecmail_org/Documents/web app/dcareclinic.com/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="887" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81FAC8DF-1753-4EB5-A2A1-3D6B9888C0F3}"/>
+  <xr:revisionPtr revIDLastSave="892" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC568E2-F2D1-4FA4-96D1-38180BC5A2A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="304">
   <si>
     <t>No</t>
   </si>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
   <dimension ref="B2:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:G137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3480,9 +3480,6 @@
       <c r="E135" t="s">
         <v>9</v>
       </c>
-      <c r="F135">
-        <v>4</v>
-      </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" s="3">
@@ -3497,9 +3494,6 @@
       <c r="E136" t="s">
         <v>9</v>
       </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" s="3">
@@ -3510,6 +3504,9 @@
       </c>
       <c r="D137" t="s">
         <v>20</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
@@ -4935,7 +4932,7 @@
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E73:E84 E4:E5 E88:E90 E216:E222 E94:E103 E112:E118 E122:E123 E127:E128 E107:E109 E132:E136 E141:E144 E148:E151 E155:E158 E162:E165 E9:E31 E234:E239 E48:E50 E53:E60 E63:E70 E196:E212 E188:E191 E169:E178 E181:E184 E226 E230 E34:E45</xm:sqref>
+          <xm:sqref>E73:E84 E4:E5 E88:E90 E216:E222 E94:E103 E112:E118 E122:E123 E127:E128 E107:E109 E132:E137 E141:E144 E148:E151 E155:E158 E162:E165 E9:E31 E234:E239 E48:E50 E53:E60 E63:E70 E196:E212 E188:E191 E169:E178 E181:E184 E226 E230 E34:E45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecgo-my.sharepoint.com/personal/sonthaya_kan_ovecmail_org/Documents/web app/dcareclinic.com/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC568E2-F2D1-4FA4-96D1-38180BC5A2A5}"/>
+  <xr:revisionPtr revIDLastSave="978" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30508B2-49A0-4EC9-9674-2C90AAE3B435}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="327">
   <si>
     <t>No</t>
   </si>
@@ -894,27 +894,15 @@
     <t>users</t>
   </si>
   <si>
-    <t>ผู้ใช้งาน</t>
-  </si>
-  <si>
     <t>users_id</t>
   </si>
   <si>
     <t>users_username</t>
   </si>
   <si>
-    <t>users_type</t>
-  </si>
-  <si>
     <t>users_password</t>
   </si>
   <si>
-    <t>em_id</t>
-  </si>
-  <si>
-    <t>หรัส หนง.</t>
-  </si>
-  <si>
     <t>users_status</t>
   </si>
   <si>
@@ -949,13 +937,94 @@
   </si>
   <si>
     <t>ราคาคอร์ส</t>
+  </si>
+  <si>
+    <t>drug_cost</t>
+  </si>
+  <si>
+    <t>ต้นทุน/หน่วย</t>
+  </si>
+  <si>
+    <t>drug_pic</t>
+  </si>
+  <si>
+    <t>ผู้รับเข้า</t>
+  </si>
+  <si>
+    <t>สต๊อก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_transactions </t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>transaction_date</t>
+  </si>
+  <si>
+    <t>รหัสเบิกจ่ายหรือรหัสธุรกรรม</t>
+  </si>
+  <si>
+    <t>วันที่และเวลาที่ทำรายการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity </t>
+  </si>
+  <si>
+    <t>จำนวนของรายการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expiry_date </t>
+  </si>
+  <si>
+    <t>วันหมดอายุของสินค้า (ถ้ามี)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost_per_unit </t>
+  </si>
+  <si>
+    <t>ต้นทุนต่อหน่วย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_type </t>
+  </si>
+  <si>
+    <t>ประเภทของสต็อก: ยา, อุปกรณ์เสริม, หรือเครื่องมือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related_id </t>
+  </si>
+  <si>
+    <t>รหัสอ้างอิงไปยังตารางที่เกี่ยวข้อง (ขึ้นอยู่กับ stock_type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status </t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>บันทึกเพิ่มเติมหรือหมายเหตุ</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>วันและเวลาที่สร้างรายการ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updated_at </t>
+  </si>
+  <si>
+    <t>วันและเวลาที่อัปเดตรายการล่าสุด</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1078,11 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1065,7 +1139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1087,6 +1161,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1102,6 +1177,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,13 +1480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
-  <dimension ref="B2:I239"/>
+  <dimension ref="B2:I248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="2" max="2" width="4.75" customWidth="1"/>
@@ -1426,7 +1505,7 @@
     <col min="26" max="26" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1437,7 +1516,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="24">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1480,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1494,18 +1573,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" ht="24">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="B9" s="3">
         <v>1</v>
       </c>
@@ -1548,7 +1627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1565,7 +1644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1579,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1596,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -1613,7 +1692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -1630,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="3">
         <v>7</v>
       </c>
@@ -1647,7 +1726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -1664,7 +1743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="3">
         <v>9</v>
       </c>
@@ -1681,7 +1760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="3">
         <v>10</v>
       </c>
@@ -1698,7 +1777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1718,7 +1797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="3">
         <v>12</v>
       </c>
@@ -1735,7 +1814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="B21" s="3">
         <v>13</v>
       </c>
@@ -1749,7 +1828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="B22" s="3">
         <v>14</v>
       </c>
@@ -1763,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="B23" s="3">
         <v>15</v>
       </c>
@@ -1777,7 +1856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="B24" s="3">
         <v>16</v>
       </c>
@@ -1794,7 +1873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="B25" s="3">
         <v>17</v>
       </c>
@@ -1811,7 +1890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="B26" s="3">
         <v>18</v>
       </c>
@@ -1828,7 +1907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9">
       <c r="B27" s="3">
         <v>19</v>
       </c>
@@ -1845,7 +1924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="B28" s="3">
         <v>20</v>
       </c>
@@ -1862,7 +1941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9">
       <c r="B29" s="3">
         <v>21</v>
       </c>
@@ -1879,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9">
       <c r="B30" s="3">
         <v>22</v>
       </c>
@@ -1896,10 +1975,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9">
       <c r="B32" s="3">
         <v>3</v>
       </c>
@@ -1910,7 +1989,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:9" ht="24">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1936,12 +2015,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9">
       <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>277</v>
@@ -1953,15 +2032,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9">
       <c r="B35" s="3">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1970,15 +2049,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9">
       <c r="B36" s="3">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1987,12 +2066,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9">
       <c r="B37" s="3">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -2004,12 +2083,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9">
       <c r="B38" s="3">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -2021,12 +2100,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9">
       <c r="B39" s="3">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -2038,12 +2117,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9">
       <c r="B40" s="3">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D40" t="s">
         <v>30</v>
@@ -2055,7 +2134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9">
       <c r="B41" s="3">
         <v>8</v>
       </c>
@@ -2069,12 +2148,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9">
       <c r="B42" s="3">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>199</v>
@@ -2086,12 +2165,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9">
       <c r="B43" s="3">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -2103,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9">
       <c r="B44" s="3">
         <v>11</v>
       </c>
@@ -2117,10 +2196,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9">
       <c r="B46" s="3">
         <v>4</v>
       </c>
@@ -2131,7 +2210,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:9" ht="24">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9">
       <c r="B48" s="3">
         <v>1</v>
       </c>
@@ -2174,7 +2253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="3">
         <v>2</v>
       </c>
@@ -2191,10 +2270,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" s="10" customFormat="1">
       <c r="B51" s="9">
         <v>5</v>
       </c>
@@ -2205,7 +2284,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:9" ht="24">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3">
         <v>1</v>
       </c>
@@ -2248,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="3">
         <v>2</v>
       </c>
@@ -2265,7 +2344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="3">
         <v>3</v>
       </c>
@@ -2282,7 +2361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="3">
         <v>4</v>
       </c>
@@ -2299,7 +2378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="3">
         <v>5</v>
       </c>
@@ -2316,7 +2395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="3">
         <v>6</v>
       </c>
@@ -2333,7 +2412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3">
         <v>7</v>
       </c>
@@ -2350,10 +2429,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" s="10" customFormat="1">
       <c r="B61" s="9">
         <v>6</v>
       </c>
@@ -2364,7 +2443,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:9" ht="24">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9">
       <c r="B63" s="3">
         <v>1</v>
       </c>
@@ -2407,7 +2486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="3">
         <v>2</v>
       </c>
@@ -2424,7 +2503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9">
       <c r="B65" s="3">
         <v>3</v>
       </c>
@@ -2441,7 +2520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9">
       <c r="B66" s="3">
         <v>4</v>
       </c>
@@ -2458,7 +2537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9">
       <c r="B67" s="3">
         <v>5</v>
       </c>
@@ -2475,7 +2554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9">
       <c r="B68" s="3">
         <v>6</v>
       </c>
@@ -2492,7 +2571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9">
       <c r="B69" s="3">
         <v>7</v>
       </c>
@@ -2509,10 +2588,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9">
       <c r="B71" s="3">
         <v>7</v>
       </c>
@@ -2523,7 +2602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:9" ht="24">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9">
       <c r="B73" s="3">
         <v>1</v>
       </c>
@@ -2566,7 +2645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9">
       <c r="B74" s="3">
         <v>2</v>
       </c>
@@ -2580,7 +2659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9">
       <c r="B75" s="3">
         <v>3</v>
       </c>
@@ -2597,7 +2676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9">
       <c r="B76" s="3">
         <v>4</v>
       </c>
@@ -2611,13 +2690,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9">
       <c r="B77" s="3"/>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D77" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -2626,7 +2705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9">
       <c r="B78" s="3">
         <v>5</v>
       </c>
@@ -2643,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9">
       <c r="B79" s="3">
         <v>6</v>
       </c>
@@ -2663,7 +2742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9">
       <c r="B80" s="3">
         <v>7</v>
       </c>
@@ -2677,7 +2756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9">
       <c r="B81" s="3">
         <v>8</v>
       </c>
@@ -2691,7 +2770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9">
       <c r="B82" s="3">
         <v>9</v>
       </c>
@@ -2708,7 +2787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9">
       <c r="B83" s="3">
         <v>10</v>
       </c>
@@ -2722,7 +2801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9">
       <c r="B84" s="3">
         <v>11</v>
       </c>
@@ -2739,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9">
       <c r="B86" s="3">
         <v>8</v>
       </c>
@@ -2747,10 +2826,10 @@
         <v>73</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="24">
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2776,7 +2855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9">
       <c r="B88" s="3">
         <v>1</v>
       </c>
@@ -2793,7 +2872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9">
       <c r="B89" s="3">
         <v>2</v>
       </c>
@@ -2810,7 +2889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9">
       <c r="B90" s="3">
         <v>3</v>
       </c>
@@ -2827,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9">
       <c r="B92" s="3">
         <v>9</v>
       </c>
@@ -2838,7 +2917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:9" ht="24">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9">
       <c r="B94" s="3">
         <v>1</v>
       </c>
@@ -2881,7 +2960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9">
       <c r="B95" s="3">
         <v>2</v>
       </c>
@@ -2895,7 +2974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9">
       <c r="B96" s="3">
         <v>3</v>
       </c>
@@ -2912,7 +2991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9">
       <c r="B97" s="3">
         <v>4</v>
       </c>
@@ -2929,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9">
       <c r="B98" s="3">
         <v>5</v>
       </c>
@@ -2943,7 +3022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9">
       <c r="B99" s="3">
         <v>6</v>
       </c>
@@ -2960,7 +3039,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9">
       <c r="B100" s="3">
         <v>7</v>
       </c>
@@ -2977,7 +3056,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9">
       <c r="B101" s="3">
         <v>8</v>
       </c>
@@ -2994,7 +3073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9">
       <c r="B102" s="3">
         <v>9</v>
       </c>
@@ -3008,1912 +3087,2048 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9">
       <c r="B103" s="3">
         <v>10</v>
       </c>
       <c r="C103" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
+      <c r="B104" s="3"/>
+      <c r="C104" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="3">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
         <v>103</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>20</v>
       </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="3">
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
+      <c r="B107" s="3">
         <v>10</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>134</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="1" t="s">
+    <row r="108" spans="2:9" ht="24">
+      <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="3">
+    <row r="109" spans="2:9">
+      <c r="B109" s="3">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>93</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>94</v>
       </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="3">
-        <v>2</v>
-      </c>
-      <c r="C108" t="s">
+    <row r="110" spans="2:9">
+      <c r="B110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
         <v>136</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>137</v>
       </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108">
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="3">
+    <row r="111" spans="2:9">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="2:9">
+      <c r="B112" s="3">
         <v>11</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>112</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="1" t="s">
+    <row r="113" spans="2:9" ht="24">
+      <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="1" t="s">
+      <c r="D113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="3">
+    <row r="114" spans="2:9">
+      <c r="B114" s="3">
         <v>1</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>113</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>114</v>
       </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="3">
-        <v>2</v>
-      </c>
-      <c r="C113" t="s">
+    <row r="115" spans="2:9">
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
         <v>115</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>117</v>
       </c>
-      <c r="E113" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113">
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115">
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="3">
+    <row r="116" spans="2:9">
+      <c r="B116" s="3">
         <v>3</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>118</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D116" t="s">
         <v>119</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E116" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="3">
+    <row r="117" spans="2:9">
+      <c r="B117" s="3">
         <v>4</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>120</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>121</v>
       </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="3">
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="3">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" t="s">
         <v>126</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>102</v>
       </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="3">
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="3">
         <v>6</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>127</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
         <v>105</v>
       </c>
-      <c r="E117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="3">
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="3">
         <v>7</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>128</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D120" t="s">
         <v>20</v>
       </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="3">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="3">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
         <v>122</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="1" t="s">
+    <row r="123" spans="2:9" ht="24">
+      <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="D123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="3">
+    <row r="124" spans="2:9">
+      <c r="B124" s="3">
         <v>1</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>120</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D124" t="s">
         <v>121</v>
       </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="3">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
+    <row r="125" spans="2:9">
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
         <v>123</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D125" t="s">
         <v>124</v>
       </c>
-      <c r="E123" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123">
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125">
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="3">
+    <row r="127" spans="2:9">
+      <c r="B127" s="3">
         <v>13</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>129</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D127" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B126" s="1" t="s">
+    <row r="128" spans="2:9" ht="24">
+      <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="3">
+    <row r="129" spans="2:9">
+      <c r="B129" s="3">
         <v>1</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>131</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D129" t="s">
         <v>105</v>
       </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="3">
-        <v>2</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="130" spans="2:9">
+      <c r="B130" s="3">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
         <v>132</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D130" t="s">
         <v>133</v>
       </c>
-      <c r="E128" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128">
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B130" s="3">
+    <row r="132" spans="2:9">
+      <c r="B132" s="3">
         <v>14</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" t="s">
         <v>138</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D132" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="1" t="s">
+    <row r="133" spans="2:9" ht="24">
+      <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="D133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B132" s="3">
+    <row r="134" spans="2:9">
+      <c r="B134" s="3">
         <v>1</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>140</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D134" t="s">
         <v>141</v>
       </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B133" s="3">
-        <v>2</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="135" spans="2:9">
+      <c r="B135" s="3">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
         <v>142</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D135" t="s">
         <v>143</v>
       </c>
-      <c r="E133" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133">
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B134" s="3">
+    <row r="136" spans="2:9">
+      <c r="B136" s="3">
         <v>3</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>144</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D136" t="s">
         <v>145</v>
       </c>
-      <c r="E134" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134">
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136">
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="3">
+    <row r="137" spans="2:9">
+      <c r="B137" s="3">
         <v>4</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C137" t="s">
         <v>157</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D137" t="s">
         <v>102</v>
       </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B136" s="3">
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="3">
         <v>5</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C138" t="s">
         <v>158</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>105</v>
       </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="3">
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="3">
         <v>6</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C139" t="s">
         <v>159</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D139" t="s">
         <v>20</v>
       </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="3">
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="3">
         <v>15</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C141" t="s">
         <v>146</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D141" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B140" s="1" t="s">
+    <row r="142" spans="2:9" ht="24">
+      <c r="B142" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E140" s="1" t="s">
+      <c r="D142" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B141" s="3">
+    <row r="143" spans="2:9">
+      <c r="B143" s="3">
         <v>1</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C143" t="s">
         <v>148</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D143" t="s">
         <v>149</v>
       </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B142" s="3">
-        <v>2</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="144" spans="2:9">
+      <c r="B144" s="3">
+        <v>2</v>
+      </c>
+      <c r="C144" t="s">
         <v>89</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D144" t="s">
         <v>90</v>
       </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" s="3">
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
+      <c r="B145" s="3">
         <v>3</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C145" t="s">
         <v>65</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D145" t="s">
         <v>66</v>
       </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" s="3">
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
+      <c r="B146" s="3">
         <v>4</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" t="s">
         <v>150</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D146" t="s">
         <v>151</v>
       </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B146" s="3">
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
+      <c r="B148" s="3">
         <v>16</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>152</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B147" s="1" t="s">
+    <row r="149" spans="2:9" ht="24">
+      <c r="B149" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B148" s="3">
+    <row r="150" spans="2:9">
+      <c r="B150" s="3">
         <v>1</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C150" t="s">
         <v>154</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D150" t="s">
         <v>163</v>
       </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="3">
-        <v>2</v>
-      </c>
-      <c r="C149" t="s">
+    <row r="151" spans="2:9">
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
         <v>113</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D151" t="s">
         <v>114</v>
       </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B150" s="3">
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
+      <c r="B152" s="3">
         <v>3</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C152" t="s">
         <v>65</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D152" t="s">
         <v>66</v>
       </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="3">
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
+      <c r="B153" s="3">
         <v>4</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C153" t="s">
         <v>155</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D153" t="s">
         <v>156</v>
       </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="3">
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
+      <c r="B155" s="3">
         <v>17</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C155" t="s">
         <v>160</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B154" s="1" t="s">
+    <row r="156" spans="2:9" ht="24">
+      <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="D156" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="I156" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B155" s="3">
+    <row r="157" spans="2:9">
+      <c r="B157" s="3">
         <v>1</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C157" t="s">
         <v>162</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D157" t="s">
         <v>164</v>
       </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="G155" t="s">
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B156" s="3">
-        <v>2</v>
-      </c>
-      <c r="C156" t="s">
+    <row r="158" spans="2:9">
+      <c r="B158" s="3">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
         <v>140</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D158" t="s">
         <v>141</v>
       </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B157" s="3">
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
+      <c r="B159" s="3">
         <v>3</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C159" t="s">
         <v>65</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D159" t="s">
         <v>66</v>
       </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B158" s="3">
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
+      <c r="B160" s="3">
         <v>4</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C160" t="s">
         <v>161</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D160" t="s">
         <v>165</v>
       </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B160" s="3">
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9">
+      <c r="B162" s="3">
         <v>18</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C162" t="s">
         <v>166</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D162" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B161" s="1" t="s">
+    <row r="163" spans="2:9" ht="24">
+      <c r="B163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E161" s="1" t="s">
+      <c r="D163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I161" s="2" t="s">
+      <c r="I163" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B162" s="3">
+    <row r="164" spans="2:9">
+      <c r="B164" s="3">
         <v>1</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C164" t="s">
         <v>167</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D164" t="s">
         <v>169</v>
       </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B163" s="3">
-        <v>2</v>
-      </c>
-      <c r="C163" t="s">
+    <row r="165" spans="2:9">
+      <c r="B165" s="3">
+        <v>2</v>
+      </c>
+      <c r="C165" t="s">
         <v>39</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D165" t="s">
         <v>41</v>
       </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B164" s="3">
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9">
+      <c r="B166" s="3">
         <v>3</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C166" t="s">
         <v>170</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D166" t="s">
         <v>171</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E166" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B165" s="3">
+    <row r="167" spans="2:9">
+      <c r="B167" s="3">
         <v>4</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C167" t="s">
         <v>172</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D167" t="s">
         <v>173</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E167" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B167" s="3">
+    <row r="169" spans="2:9">
+      <c r="B169" s="3">
         <v>19</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C169" t="s">
         <v>174</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D169" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B168" s="1" t="s">
+    <row r="170" spans="2:9" ht="24">
+      <c r="B170" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="D170" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="I170" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B169" s="3">
+    <row r="171" spans="2:9">
+      <c r="B171" s="3">
         <v>1</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C171" t="s">
         <v>176</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D171" t="s">
         <v>177</v>
       </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B170" s="3">
-        <v>2</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="172" spans="2:9">
+      <c r="B172" s="3">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
         <v>39</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D172" t="s">
         <v>41</v>
       </c>
-      <c r="E170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" s="3">
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
+      <c r="B173" s="3">
         <v>3</v>
       </c>
-      <c r="C171" t="s">
-        <v>286</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C173" t="s">
+        <v>285</v>
+      </c>
+      <c r="D173" t="s">
         <v>179</v>
       </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B172" s="3">
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
+      <c r="B174" s="3">
         <v>4</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C174" t="s">
         <v>167</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D174" t="s">
         <v>215</v>
       </c>
-      <c r="E172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B173" s="3">
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
+      <c r="B175" s="3">
         <v>5</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C175" t="s">
         <v>221</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D175" t="s">
         <v>222</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E175" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B174" s="3">
+    <row r="176" spans="2:9">
+      <c r="B176" s="3">
         <v>6</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C176" t="s">
         <v>218</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D176" t="s">
         <v>216</v>
       </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174">
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176">
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B175" s="3">
+    <row r="177" spans="2:9">
+      <c r="B177" s="3">
         <v>7</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C177" t="s">
         <v>219</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D177" t="s">
         <v>217</v>
       </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" s="3"/>
-      <c r="C176" t="s">
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="3"/>
+      <c r="C178" t="s">
         <v>268</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D178" t="s">
         <v>267</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E178" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B177" s="3">
+    <row r="179" spans="2:9">
+      <c r="B179" s="3">
         <v>8</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C179" t="s">
         <v>220</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D179" t="s">
         <v>20</v>
       </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B178" s="3"/>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B179" s="3">
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9">
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="2:9">
+      <c r="B181" s="3">
         <v>20</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C181" t="s">
         <v>265</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D181" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B180" s="1" t="s">
+    <row r="182" spans="2:9" ht="24">
+      <c r="B182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="D182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I180" s="2" t="s">
+      <c r="I182" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B181" s="3">
+    <row r="183" spans="2:9">
+      <c r="B183" s="3">
         <v>1</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C183" t="s">
         <v>269</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D183" t="s">
         <v>270</v>
       </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B182" s="3">
-        <v>2</v>
-      </c>
-      <c r="C182" t="s">
+    <row r="184" spans="2:9">
+      <c r="B184" s="3">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
         <v>176</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D184" t="s">
         <v>177</v>
       </c>
-      <c r="E182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B183" s="3">
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
+      <c r="B185" s="3">
         <v>3</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C185" t="s">
         <v>65</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D185" t="s">
         <v>66</v>
       </c>
-      <c r="E183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B184" s="3">
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9">
+      <c r="B186" s="3">
         <v>3</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C186" t="s">
         <v>271</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D186" t="s">
         <v>272</v>
       </c>
-      <c r="E184" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B186" s="3">
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9">
+      <c r="B188" s="3">
         <v>21</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C188" t="s">
         <v>223</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D188" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="187" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B187" s="1" t="s">
+    <row r="189" spans="2:9" ht="24">
+      <c r="B189" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="D189" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I187" s="2" t="s">
+      <c r="I189" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B188" s="3">
+    <row r="190" spans="2:9">
+      <c r="B190" s="3">
         <v>1</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C190" t="s">
         <v>225</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D190" t="s">
         <v>226</v>
       </c>
-      <c r="E188" t="s">
-        <v>9</v>
-      </c>
-      <c r="G188" t="s">
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B189" s="3">
-        <v>2</v>
-      </c>
-      <c r="C189" t="s">
+    <row r="191" spans="2:9">
+      <c r="B191" s="3">
+        <v>2</v>
+      </c>
+      <c r="C191" t="s">
         <v>167</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D191" t="s">
         <v>169</v>
       </c>
-      <c r="E189" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B190" s="3">
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9">
+      <c r="B192" s="3">
         <v>3</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C192" t="s">
         <v>255</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D192" t="s">
         <v>257</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E192" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B191" s="3">
+    <row r="193" spans="2:9">
+      <c r="B193" s="3">
         <v>4</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C193" t="s">
         <v>256</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D193" t="s">
         <v>258</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E193" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B192" s="3">
+    <row r="194" spans="2:9">
+      <c r="B194" s="3">
         <v>5</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C194" t="s">
         <v>227</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D194" t="s">
         <v>20</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E194" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B194" s="3">
+    <row r="196" spans="2:9">
+      <c r="B196" s="3">
         <v>22</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C196" t="s">
         <v>229</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D196" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B195" s="1" t="s">
+    <row r="197" spans="2:9" ht="24">
+      <c r="B197" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E195" s="1" t="s">
+      <c r="D197" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F197" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G197" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I195" s="2" t="s">
+      <c r="I197" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B196" s="3">
+    <row r="198" spans="2:9">
+      <c r="B198" s="3">
         <v>1</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C198" t="s">
         <v>231</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="G196" t="s">
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B197" s="3">
-        <v>2</v>
-      </c>
-      <c r="C197" t="s">
+    <row r="199" spans="2:9">
+      <c r="B199" s="3">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
         <v>225</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D199" t="s">
         <v>226</v>
       </c>
-      <c r="E197" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B198" s="3">
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
+      <c r="B200" s="3">
         <v>3</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C200" t="s">
         <v>39</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D200" t="s">
         <v>41</v>
       </c>
-      <c r="E198" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B199" s="3">
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9">
+      <c r="B201" s="3">
         <v>4</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C201" t="s">
         <v>65</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D201" t="s">
         <v>66</v>
       </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B200" s="3">
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9">
+      <c r="B202" s="3">
         <v>5</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C202" t="s">
         <v>188</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D202" t="s">
         <v>189</v>
       </c>
-      <c r="E200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B201" s="3">
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9">
+      <c r="B203" s="3">
         <v>6</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C203" t="s">
         <v>234</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D203" t="s">
         <v>233</v>
-      </c>
-      <c r="E201" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B202" s="3">
-        <v>7</v>
-      </c>
-      <c r="C202" t="s">
-        <v>235</v>
-      </c>
-      <c r="D202" t="s">
-        <v>236</v>
-      </c>
-      <c r="E202" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B203" s="3">
-        <v>8</v>
-      </c>
-      <c r="C203" t="s">
-        <v>237</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="E203" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:9">
       <c r="B204" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>239</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="D204" t="s">
+        <v>236</v>
       </c>
       <c r="E204" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:9">
       <c r="B205" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E205" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:9">
       <c r="B206" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>243</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E206" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:9">
       <c r="B207" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
+        <v>241</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E207" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9">
+      <c r="B208" s="3">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>243</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E208" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9">
+      <c r="B209" s="3">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
         <v>250</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D209" t="s">
         <v>245</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E209" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B208" s="3">
+    <row r="210" spans="2:9">
+      <c r="B210" s="3">
         <v>13</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C210" t="s">
         <v>251</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D210" t="s">
         <v>7</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E210" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B209" s="3">
+    <row r="211" spans="2:9">
+      <c r="B211" s="3">
         <v>14</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C211" t="s">
         <v>252</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D211" t="s">
         <v>246</v>
       </c>
-      <c r="E209" t="s">
-        <v>12</v>
-      </c>
-      <c r="F209">
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B210" s="3">
+    <row r="212" spans="2:9">
+      <c r="B212" s="3">
         <v>15</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C212" t="s">
         <v>253</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D212" t="s">
         <v>247</v>
       </c>
-      <c r="E210" t="s">
-        <v>12</v>
-      </c>
-      <c r="F210">
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B211" s="3">
+    <row r="213" spans="2:9">
+      <c r="B213" s="3">
         <v>16</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C213" t="s">
         <v>254</v>
       </c>
-      <c r="D211" s="6" t="s">
+      <c r="D213" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E211" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211">
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213">
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B212" s="3">
+    <row r="214" spans="2:9">
+      <c r="B214" s="3">
         <v>17</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C214" t="s">
         <v>249</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D214" t="s">
         <v>20</v>
       </c>
-      <c r="E212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B214" s="3">
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="B216" s="3">
         <v>23</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C216" t="s">
         <v>259</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D216" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B215" s="1" t="s">
+    <row r="217" spans="2:9" ht="24">
+      <c r="B217" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E215" s="1" t="s">
+      <c r="D217" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I215" s="2" t="s">
+      <c r="I217" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B216" s="3">
+    <row r="218" spans="2:9">
+      <c r="B218" s="3">
         <v>1</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C218" t="s">
         <v>261</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D218" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E216" t="s">
-        <v>9</v>
-      </c>
-      <c r="G216" t="s">
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B217" s="3">
-        <v>2</v>
-      </c>
-      <c r="C217" t="s">
+    <row r="219" spans="2:9">
+      <c r="B219" s="3">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
         <v>231</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D219" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B218" s="3">
+      <c r="E219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9">
+      <c r="B220" s="3">
         <v>3</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>225</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D220" t="s">
         <v>226</v>
       </c>
-      <c r="E218" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B219" s="3">
+      <c r="E220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
+      <c r="B221" s="3">
         <v>4</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C221" t="s">
         <v>39</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D221" t="s">
         <v>41</v>
       </c>
-      <c r="E219" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B220" s="3">
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
+      <c r="B222" s="3">
         <v>5</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C222" t="s">
         <v>65</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D222" t="s">
         <v>66</v>
       </c>
-      <c r="E220" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B221" s="3">
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9">
+      <c r="B223" s="3">
         <v>6</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C223" t="s">
         <v>263</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D223" t="s">
         <v>264</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E223" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B222" s="3">
+    <row r="224" spans="2:9">
+      <c r="B224" s="3">
         <v>7</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C224" t="s">
         <v>273</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D224" t="s">
         <v>20</v>
       </c>
-      <c r="E222" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B224" s="3">
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="B226" s="3">
         <v>23</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C226" t="s">
         <v>274</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D226" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="225" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B225" s="1" t="s">
+    <row r="227" spans="2:9" ht="24">
+      <c r="B227" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E225" s="1" t="s">
+      <c r="D227" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E227" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F227" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G227" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I225" s="2" t="s">
+      <c r="I227" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B226" s="3">
+    <row r="228" spans="2:9">
+      <c r="B228" s="3">
         <v>1</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C228" t="s">
         <v>275</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E226" t="s">
-        <v>9</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="E228" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B227" s="3">
-        <v>2</v>
-      </c>
-      <c r="C227" t="s">
+    <row r="229" spans="2:9">
+      <c r="B229" s="3">
+        <v>2</v>
+      </c>
+      <c r="C229" t="s">
         <v>276</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D229" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B228" s="3">
+    <row r="230" spans="2:9">
+      <c r="B230" s="3">
         <v>3</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C230" t="s">
         <v>278</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D230" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B229" s="3">
+    <row r="231" spans="2:9">
+      <c r="B231" s="3">
         <v>4</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C231" t="s">
         <v>282</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D231" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B230" s="3">
+    <row r="232" spans="2:9">
+      <c r="B232" s="3">
         <v>5</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C232" t="s">
         <v>261</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D232" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E230" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B232" s="9">
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" s="9">
         <v>23</v>
       </c>
-      <c r="C232" t="s">
-        <v>284</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C234" t="s">
+        <v>305</v>
+      </c>
+      <c r="D234" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" ht="24">
+      <c r="B235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" s="3">
+        <v>1</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9">
+      <c r="B237" s="3">
+        <v>2</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D237" t="s">
+        <v>309</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" s="3">
+        <v>3</v>
+      </c>
+      <c r="C238" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="233" spans="2:9" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B233" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F233" s="1" t="s">
+      <c r="D238" t="s">
+        <v>303</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="B239" s="3">
         <v>4</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H233" s="1" t="s">
+      <c r="C239" t="s">
+        <v>310</v>
+      </c>
+      <c r="D239" t="s">
+        <v>311</v>
+      </c>
+      <c r="E239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="B240" s="3">
         <v>6</v>
       </c>
-      <c r="I233" s="2" t="s">
+      <c r="C240" t="s">
+        <v>312</v>
+      </c>
+      <c r="D240" t="s">
+        <v>313</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B234" s="3">
-        <v>1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>286</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E234" t="s">
-        <v>9</v>
-      </c>
-      <c r="G234" t="s">
+      <c r="C241" t="s">
+        <v>314</v>
+      </c>
+      <c r="D241" t="s">
+        <v>315</v>
+      </c>
+      <c r="E241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" s="3">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>316</v>
+      </c>
+      <c r="D242" t="s">
+        <v>317</v>
+      </c>
+      <c r="E242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" s="3">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>318</v>
+      </c>
+      <c r="D243" t="s">
+        <v>319</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B235" s="3">
-        <v>2</v>
-      </c>
-      <c r="C235" t="s">
-        <v>287</v>
-      </c>
-      <c r="E235" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B236" s="3">
-        <v>3</v>
-      </c>
-      <c r="C236" t="s">
-        <v>289</v>
-      </c>
-      <c r="E236" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B237" s="3">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>288</v>
-      </c>
-      <c r="E237" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B238" s="3">
-        <v>5</v>
-      </c>
-      <c r="C238" t="s">
-        <v>290</v>
-      </c>
-      <c r="D238" t="s">
-        <v>291</v>
-      </c>
-      <c r="E238" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B239" s="3">
-        <v>6</v>
-      </c>
-      <c r="C239" t="s">
-        <v>292</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="C244" t="s">
+        <v>320</v>
+      </c>
+      <c r="D244" t="s">
         <v>20</v>
       </c>
-      <c r="E239" t="s">
-        <v>9</v>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" s="3">
+        <v>11</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D245" t="s">
+        <v>111</v>
+      </c>
+      <c r="E245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" s="3">
+        <v>12</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D246" t="s">
+        <v>322</v>
+      </c>
+      <c r="E246" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="3">
+        <v>13</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D247" t="s">
+        <v>324</v>
+      </c>
+      <c r="E247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="3">
+        <v>14</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D248" t="s">
+        <v>326</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4926,13 +5141,13 @@
           <x14:formula1>
             <xm:f>Sheet3!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G73:G79 G4 G88 G169 G94:G95 G112 G122 G127 G107:G109 G132 G141 G148 G155 G162 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G188 G196 G216 G181:G183 G226 G234 G34:G37 G44</xm:sqref>
+          <xm:sqref>G73:G79 G4 G88 G171 G94:G95 G114 G124 G129 G109:G111 G134 G143 G150 G157 G164 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G190 G198 G218 G183:G185 G228 G236 G34:G37 G44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A04974-1981-4BA4-B0FF-10FFE7E02263}">
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E73:E84 E4:E5 E88:E90 E216:E222 E94:E103 E112:E118 E122:E123 E127:E128 E107:E109 E132:E137 E141:E144 E148:E151 E155:E158 E162:E165 E9:E31 E234:E239 E48:E50 E53:E60 E63:E70 E196:E212 E188:E191 E169:E178 E181:E184 E226 E230 E34:E45</xm:sqref>
+          <xm:sqref>E73:E84 E4:E5 E88:E90 E218:E224 E94:E105 E114:E120 E124:E125 E129:E130 E109:E111 E134:E139 E143:E146 E150:E153 E157:E160 E164:E167 E9:E31 E48:E50 E53:E60 E63:E70 E198:E214 E190:E193 E171:E180 E183:E186 E228 E232 E34:E45 E236:E248</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4948,9 +5163,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -4958,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4966,7 +5181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -4974,32 +5189,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>19</v>
       </c>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecgo-my.sharepoint.com/personal/sonthaya_kan_ovecmail_org/Documents/web app/dcareclinic.com/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="978" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F30508B2-49A0-4EC9-9674-2C90AAE3B435}"/>
+  <xr:revisionPtr revIDLastSave="980" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E23DD01-E85D-4996-9800-FD426CBC7A5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="328">
   <si>
     <t>No</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t>วันและเวลาที่อัปเดตรายการล่าสุด</t>
+  </si>
+  <si>
+    <t>tool_cost</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1480,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
-  <dimension ref="B2:I248"/>
+  <dimension ref="B2:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3590,110 +3589,102 @@
       </c>
     </row>
     <row r="138" spans="2:9">
-      <c r="B138" s="3">
-        <v>5</v>
-      </c>
+      <c r="B138" s="3"/>
       <c r="C138" t="s">
-        <v>158</v>
-      </c>
-      <c r="D138" t="s">
-        <v>105</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" spans="2:9">
       <c r="B139" s="3">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="3">
         <v>6</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>159</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>20</v>
       </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="3">
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="3">
         <v>15</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>146</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="2:9" ht="24">
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="2:9" ht="24">
+      <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="D143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="3">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
-        <v>148</v>
-      </c>
-      <c r="D143" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="144" spans="2:9">
       <c r="B144" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="D144" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="2:9">
       <c r="B145" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D145" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
@@ -3701,95 +3692,95 @@
     </row>
     <row r="146" spans="2:9">
       <c r="B146" s="3">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" t="s">
+        <v>66</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
+      <c r="B147" s="3">
         <v>4</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>150</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>151</v>
       </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="3">
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
+      <c r="B149" s="3">
         <v>16</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>152</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D149" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="2:9" ht="24">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="2:9" ht="24">
+      <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="1" t="s">
+      <c r="D150" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="I150" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="3">
-        <v>1</v>
-      </c>
-      <c r="C150" t="s">
-        <v>154</v>
-      </c>
-      <c r="D150" t="s">
-        <v>163</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="151" spans="2:9">
       <c r="B151" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="D151" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="2:9">
       <c r="B152" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D152" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -3797,95 +3788,95 @@
     </row>
     <row r="153" spans="2:9">
       <c r="B153" s="3">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153" t="s">
+        <v>66</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
+      <c r="B154" s="3">
         <v>4</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>155</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D154" t="s">
         <v>156</v>
       </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="3">
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
+      <c r="B156" s="3">
         <v>17</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>160</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="2:9" ht="24">
-      <c r="B156" s="1" t="s">
+    <row r="157" spans="2:9" ht="24">
+      <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="D157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="I157" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="3">
-        <v>1</v>
-      </c>
-      <c r="C157" t="s">
-        <v>162</v>
-      </c>
-      <c r="D157" t="s">
-        <v>164</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="158" spans="2:9">
       <c r="B158" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D158" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="2:9">
       <c r="B159" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="D159" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -3893,191 +3884,191 @@
     </row>
     <row r="160" spans="2:9">
       <c r="B160" s="3">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" t="s">
+        <v>66</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
+      <c r="B161" s="3">
         <v>4</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>161</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D161" t="s">
         <v>165</v>
       </c>
-      <c r="E160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="3">
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9">
+      <c r="B163" s="3">
         <v>18</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>166</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D163" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="24">
-      <c r="B163" s="1" t="s">
+    <row r="164" spans="2:9" ht="24">
+      <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E163" s="1" t="s">
+      <c r="D164" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I163" s="2" t="s">
+      <c r="I164" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="3">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>167</v>
-      </c>
-      <c r="D164" t="s">
-        <v>169</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="G164" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="165" spans="2:9">
       <c r="B165" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="2:9">
       <c r="B166" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="D166" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="2:9">
       <c r="B167" s="3">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" t="s">
+        <v>171</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9">
+      <c r="B168" s="3">
         <v>4</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>172</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D168" t="s">
         <v>173</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E168" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
-      <c r="B169" s="3">
+    <row r="170" spans="2:9">
+      <c r="B170" s="3">
         <v>19</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>174</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D170" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="24">
-      <c r="B170" s="1" t="s">
+    <row r="171" spans="2:9" ht="24">
+      <c r="B171" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E170" s="1" t="s">
+      <c r="D171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="I171" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9">
-      <c r="B171" s="3">
-        <v>1</v>
-      </c>
-      <c r="C171" t="s">
-        <v>176</v>
-      </c>
-      <c r="D171" t="s">
-        <v>177</v>
-      </c>
-      <c r="E171" t="s">
-        <v>9</v>
-      </c>
-      <c r="G171" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="172" spans="2:9">
       <c r="B172" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="D172" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="2:9">
       <c r="B173" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="D173" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
@@ -4085,13 +4076,13 @@
     </row>
     <row r="174" spans="2:9">
       <c r="B174" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="D174" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
@@ -4099,155 +4090,155 @@
     </row>
     <row r="175" spans="2:9">
       <c r="B175" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="D175" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E175" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="2:9">
       <c r="B176" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D176" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="2:9">
       <c r="B177" s="3">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>218</v>
+      </c>
+      <c r="D177" t="s">
+        <v>216</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="3">
         <v>7</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
         <v>219</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>217</v>
       </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9">
-      <c r="B178" s="3"/>
-      <c r="C178" t="s">
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9">
+      <c r="B179" s="3"/>
+      <c r="C179" t="s">
         <v>268</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>267</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="2:9">
-      <c r="B179" s="3">
+    <row r="180" spans="2:9">
+      <c r="B180" s="3">
         <v>8</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>220</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>20</v>
       </c>
-      <c r="E179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9">
-      <c r="B180" s="3"/>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="181" spans="2:9">
-      <c r="B181" s="3">
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="2:9">
+      <c r="B182" s="3">
         <v>20</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>265</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="182" spans="2:9" ht="24">
-      <c r="B182" s="1" t="s">
+    <row r="183" spans="2:9" ht="24">
+      <c r="B183" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="D183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G183" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I182" s="2" t="s">
+      <c r="I183" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9">
-      <c r="B183" s="3">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>269</v>
-      </c>
-      <c r="D183" t="s">
-        <v>270</v>
-      </c>
-      <c r="E183" t="s">
-        <v>9</v>
-      </c>
-      <c r="G183" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="184" spans="2:9">
       <c r="B184" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="D184" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="2:9">
       <c r="B185" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="D185" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
@@ -4258,202 +4249,202 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
+        <v>65</v>
+      </c>
+      <c r="D186" t="s">
+        <v>66</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9">
+      <c r="B187" s="3">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
         <v>271</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>272</v>
       </c>
-      <c r="E186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9">
-      <c r="B188" s="3">
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9">
+      <c r="B189" s="3">
         <v>21</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>223</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="189" spans="2:9" ht="24">
-      <c r="B189" s="1" t="s">
+    <row r="190" spans="2:9" ht="24">
+      <c r="B190" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="D190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I189" s="2" t="s">
+      <c r="I190" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9">
-      <c r="B190" s="3">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
-        <v>225</v>
-      </c>
-      <c r="D190" t="s">
-        <v>226</v>
-      </c>
-      <c r="E190" t="s">
-        <v>9</v>
-      </c>
-      <c r="G190" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="191" spans="2:9">
       <c r="B191" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="D191" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="2:9">
       <c r="B192" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="D192" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="E192" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="2:9">
       <c r="B193" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D193" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="2:9">
       <c r="B194" s="3">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>256</v>
+      </c>
+      <c r="D194" t="s">
+        <v>258</v>
+      </c>
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
+      <c r="B195" s="3">
         <v>5</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>227</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>20</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E195" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="2:9">
-      <c r="B196" s="3">
+    <row r="197" spans="2:9">
+      <c r="B197" s="3">
         <v>22</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>229</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="24">
-      <c r="B197" s="1" t="s">
+    <row r="198" spans="2:9" ht="24">
+      <c r="B198" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="D198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I197" s="2" t="s">
+      <c r="I198" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9">
-      <c r="B198" s="3">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>231</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E198" t="s">
-        <v>9</v>
-      </c>
-      <c r="G198" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="199" spans="2:9">
       <c r="B199" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>225</v>
-      </c>
-      <c r="D199" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
+      </c>
+      <c r="G199" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="2:9">
       <c r="B200" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D200" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
@@ -4461,13 +4452,13 @@
     </row>
     <row r="201" spans="2:9">
       <c r="B201" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -4475,13 +4466,13 @@
     </row>
     <row r="202" spans="2:9">
       <c r="B202" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D202" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
@@ -4489,27 +4480,27 @@
     </row>
     <row r="203" spans="2:9">
       <c r="B203" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="D203" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="2:9">
       <c r="B204" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D204" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E204" t="s">
         <v>17</v>
@@ -4517,13 +4508,13 @@
     </row>
     <row r="205" spans="2:9">
       <c r="B205" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>237</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="D205" t="s">
+        <v>236</v>
       </c>
       <c r="E205" t="s">
         <v>17</v>
@@ -4531,13 +4522,13 @@
     </row>
     <row r="206" spans="2:9">
       <c r="B206" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>239</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E206" t="s">
         <v>17</v>
@@ -4545,13 +4536,13 @@
     </row>
     <row r="207" spans="2:9">
       <c r="B207" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>241</v>
-      </c>
-      <c r="D207" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E207" t="s">
         <v>17</v>
@@ -4559,13 +4550,13 @@
     </row>
     <row r="208" spans="2:9">
       <c r="B208" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E208" t="s">
         <v>17</v>
@@ -4573,27 +4564,27 @@
     </row>
     <row r="209" spans="2:9">
       <c r="B209" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>250</v>
-      </c>
-      <c r="D209" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="E209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="2:9">
       <c r="B210" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
@@ -4601,30 +4592,27 @@
     </row>
     <row r="211" spans="2:9">
       <c r="B211" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D211" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>12</v>
-      </c>
-      <c r="F211">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="2:9">
       <c r="B212" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E212" t="s">
         <v>12</v>
@@ -4635,112 +4623,115 @@
     </row>
     <row r="213" spans="2:9">
       <c r="B213" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>254</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="D213" t="s">
+        <v>247</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
       </c>
       <c r="F213">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="2:9">
       <c r="B214" s="3">
+        <v>16</v>
+      </c>
+      <c r="C214" t="s">
+        <v>254</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E214" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
+      <c r="B215" s="3">
         <v>17</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>249</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D215" t="s">
         <v>20</v>
       </c>
-      <c r="E214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9">
-      <c r="B216" s="3">
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
+      <c r="B217" s="3">
         <v>23</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>259</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D217" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="217" spans="2:9" ht="24">
-      <c r="B217" s="1" t="s">
+    <row r="218" spans="2:9" ht="24">
+      <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" s="1" t="s">
+      <c r="D218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I217" s="2" t="s">
+      <c r="I218" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9">
-      <c r="B218" s="3">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>261</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E218" t="s">
-        <v>9</v>
-      </c>
-      <c r="G218" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="219" spans="2:9">
       <c r="B219" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="s">
-        <v>225</v>
-      </c>
-      <c r="D220" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
@@ -4748,13 +4739,13 @@
     </row>
     <row r="221" spans="2:9">
       <c r="B221" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D221" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
@@ -4762,13 +4753,13 @@
     </row>
     <row r="222" spans="2:9">
       <c r="B222" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D222" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E222" t="s">
         <v>9</v>
@@ -4776,216 +4767,213 @@
     </row>
     <row r="223" spans="2:9">
       <c r="B223" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="D223" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="E223" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="2:9">
       <c r="B224" s="3">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>263</v>
+      </c>
+      <c r="D224" t="s">
+        <v>264</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" s="3">
         <v>7</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
         <v>273</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>20</v>
       </c>
-      <c r="E224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="2:9">
-      <c r="B226" s="3">
+      <c r="E225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" s="3">
         <v>23</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>274</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="2:9" ht="24">
-      <c r="B227" s="1" t="s">
+    <row r="228" spans="2:9" ht="24">
+      <c r="B228" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E227" s="1" t="s">
+      <c r="D228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="H228" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I227" s="2" t="s">
+      <c r="I228" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9">
-      <c r="B228" s="3">
-        <v>1</v>
-      </c>
-      <c r="C228" t="s">
-        <v>275</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E228" t="s">
-        <v>9</v>
-      </c>
-      <c r="G228" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="229" spans="2:9">
       <c r="B229" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>276</v>
-      </c>
-      <c r="D229" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E229" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="2:9">
       <c r="B230" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D230" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="2:9">
       <c r="B231" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D231" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="2:9">
       <c r="B232" s="3">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>282</v>
+      </c>
+      <c r="D232" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" s="3">
         <v>5</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>261</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9">
-      <c r="B234" s="9">
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9">
+      <c r="B235" s="9">
         <v>23</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>305</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D235" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="235" spans="2:9" ht="24">
-      <c r="B235" s="1" t="s">
+    <row r="236" spans="2:9" ht="24">
+      <c r="B236" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E235" s="1" t="s">
+      <c r="D236" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F236" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="G236" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="H236" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I235" s="2" t="s">
+      <c r="I236" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9">
-      <c r="B236" s="3">
-        <v>1</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E236" t="s">
-        <v>9</v>
-      </c>
-      <c r="G236" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="237" spans="2:9">
       <c r="B237" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D237" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="E237" t="s">
-        <v>15</v>
-      </c>
-      <c r="F237">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="G237" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="2:9">
       <c r="B238" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D238" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E238" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F238">
         <v>50</v>
@@ -4993,83 +4981,86 @@
     </row>
     <row r="239" spans="2:9">
       <c r="B239" s="3">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>310</v>
+        <v>3</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="D239" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E239" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="F239">
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="2:9">
       <c r="B240" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D240" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E240" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D241" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E241" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D242" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E242" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D243" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D244" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="E244" t="s">
         <v>9</v>
@@ -5077,13 +5068,13 @@
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="3">
-        <v>11</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>320</v>
       </c>
       <c r="D245" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
@@ -5091,43 +5082,57 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="D246" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="E246" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D247" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E247" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="3">
+        <v>13</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D248" t="s">
+        <v>324</v>
+      </c>
+      <c r="E248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" s="3">
         <v>14</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C249" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D249" t="s">
         <v>326</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E249" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5141,13 +5146,13 @@
           <x14:formula1>
             <xm:f>Sheet3!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G73:G79 G4 G88 G171 G94:G95 G114 G124 G129 G109:G111 G134 G143 G150 G157 G164 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G190 G198 G218 G183:G185 G228 G236 G34:G37 G44</xm:sqref>
+          <xm:sqref>G73:G79 G4 G88 G172 G94:G95 G114 G124 G129 G109:G111 G134 G144 G151 G158 G165 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G191 G199 G219 G184:G186 G229 G237 G34:G37 G44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A04974-1981-4BA4-B0FF-10FFE7E02263}">
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E73:E84 E4:E5 E88:E90 E218:E224 E94:E105 E114:E120 E124:E125 E129:E130 E109:E111 E134:E139 E143:E146 E150:E153 E157:E160 E164:E167 E9:E31 E48:E50 E53:E60 E63:E70 E198:E214 E190:E193 E171:E180 E183:E186 E228 E232 E34:E45 E236:E248</xm:sqref>
+          <xm:sqref>E73:E84 E4:E5 E88:E90 E219:E225 E94:E105 E114:E120 E124:E125 E129:E130 E109:E111 E134:E140 E144:E147 E151:E154 E158:E161 E165:E168 E9:E31 E48:E50 E53:E60 E63:E70 E199:E215 E191:E194 E172:E181 E184:E187 E229 E233 E34:E45 E237:E249</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vecgo-my.sharepoint.com/personal/sonthaya_kan_ovecmail_org/Documents/web app/dcareclinic.com/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E23DD01-E85D-4996-9800-FD426CBC7A5A}"/>
+  <xr:revisionPtr revIDLastSave="985" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97AA5AE3-9AED-4E83-8FE9-8405AD906C5F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="330">
   <si>
     <t>No</t>
   </si>
@@ -1021,6 +1021,12 @@
   </si>
   <si>
     <t>tool_cost</t>
+  </si>
+  <si>
+    <t>od_price</t>
+  </si>
+  <si>
+    <t>ราคา</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
-  <dimension ref="B2:I249"/>
+  <dimension ref="B2:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4148,7 +4154,9 @@
       </c>
     </row>
     <row r="179" spans="2:9">
-      <c r="B179" s="3"/>
+      <c r="B179" s="3">
+        <v>8</v>
+      </c>
       <c r="C179" t="s">
         <v>268</v>
       </c>
@@ -4161,7 +4169,7 @@
     </row>
     <row r="180" spans="2:9">
       <c r="B180" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>220</v>
@@ -4272,193 +4280,191 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="2:9">
-      <c r="B189" s="3">
+    <row r="188" spans="2:9">
+      <c r="B188" s="3"/>
+      <c r="C188" t="s">
+        <v>328</v>
+      </c>
+      <c r="D188" t="s">
+        <v>329</v>
+      </c>
+      <c r="E188" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9">
+      <c r="B190" s="3">
         <v>21</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>223</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="190" spans="2:9" ht="24">
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="2:9" ht="24">
+      <c r="B191" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="D191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I190" s="2" t="s">
+      <c r="I191" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9">
-      <c r="B191" s="3">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
-        <v>225</v>
-      </c>
-      <c r="D191" t="s">
-        <v>226</v>
-      </c>
-      <c r="E191" t="s">
-        <v>9</v>
-      </c>
-      <c r="G191" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="192" spans="2:9">
       <c r="B192" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="D192" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="2:9">
       <c r="B193" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="D193" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="E193" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="2:9">
       <c r="B194" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D194" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E194" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="2:9">
       <c r="B195" s="3">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>256</v>
+      </c>
+      <c r="D195" t="s">
+        <v>258</v>
+      </c>
+      <c r="E195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
+      <c r="B196" s="3">
         <v>5</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>227</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>20</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E196" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="2:9">
-      <c r="B197" s="3">
+    <row r="198" spans="2:9">
+      <c r="B198" s="3">
         <v>22</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>229</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="24">
-      <c r="B198" s="1" t="s">
+    <row r="199" spans="2:9" ht="24">
+      <c r="B199" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E198" s="1" t="s">
+      <c r="D199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I198" s="2" t="s">
+      <c r="I199" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9">
-      <c r="B199" s="3">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
-        <v>231</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="G199" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="200" spans="2:9">
       <c r="B200" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>225</v>
-      </c>
-      <c r="D200" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="2:9">
       <c r="B201" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D201" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
@@ -4466,13 +4472,13 @@
     </row>
     <row r="202" spans="2:9">
       <c r="B202" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D202" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E202" t="s">
         <v>9</v>
@@ -4480,13 +4486,13 @@
     </row>
     <row r="203" spans="2:9">
       <c r="B203" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="D203" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="E203" t="s">
         <v>9</v>
@@ -4494,27 +4500,27 @@
     </row>
     <row r="204" spans="2:9">
       <c r="B204" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="D204" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E204" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="2:9">
       <c r="B205" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D205" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E205" t="s">
         <v>17</v>
@@ -4522,13 +4528,13 @@
     </row>
     <row r="206" spans="2:9">
       <c r="B206" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>237</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
+      </c>
+      <c r="D206" t="s">
+        <v>236</v>
       </c>
       <c r="E206" t="s">
         <v>17</v>
@@ -4536,13 +4542,13 @@
     </row>
     <row r="207" spans="2:9">
       <c r="B207" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>239</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E207" t="s">
         <v>17</v>
@@ -4550,13 +4556,13 @@
     </row>
     <row r="208" spans="2:9">
       <c r="B208" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>241</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="E208" t="s">
         <v>17</v>
@@ -4564,13 +4570,13 @@
     </row>
     <row r="209" spans="2:9">
       <c r="B209" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E209" t="s">
         <v>17</v>
@@ -4578,27 +4584,27 @@
     </row>
     <row r="210" spans="2:9">
       <c r="B210" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C210" t="s">
-        <v>250</v>
-      </c>
-      <c r="D210" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="E210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="2:9">
       <c r="B211" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
@@ -4606,30 +4612,27 @@
     </row>
     <row r="212" spans="2:9">
       <c r="B212" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D212" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
-      </c>
-      <c r="F212">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="2:9">
       <c r="B213" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D213" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E213" t="s">
         <v>12</v>
@@ -4640,112 +4643,115 @@
     </row>
     <row r="214" spans="2:9">
       <c r="B214" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>254</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="D214" t="s">
+        <v>247</v>
       </c>
       <c r="E214" t="s">
         <v>12</v>
       </c>
       <c r="F214">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="2:9">
       <c r="B215" s="3">
+        <v>16</v>
+      </c>
+      <c r="C215" t="s">
+        <v>254</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E215" t="s">
+        <v>12</v>
+      </c>
+      <c r="F215">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
+      <c r="B216" s="3">
         <v>17</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>249</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
         <v>20</v>
       </c>
-      <c r="E215" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9">
-      <c r="B217" s="3">
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9">
+      <c r="B218" s="3">
         <v>23</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>259</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D218" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="24">
-      <c r="B218" s="1" t="s">
+    <row r="219" spans="2:9" ht="24">
+      <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D218" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E218" s="1" t="s">
+      <c r="D219" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="H219" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I218" s="2" t="s">
+      <c r="I219" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9">
-      <c r="B219" s="3">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>261</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E219" t="s">
-        <v>9</v>
-      </c>
-      <c r="G219" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="220" spans="2:9">
       <c r="B220" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E220" t="s">
         <v>9</v>
+      </c>
+      <c r="G220" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="2:9">
       <c r="B221" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>225</v>
-      </c>
-      <c r="D221" t="s">
-        <v>226</v>
+        <v>231</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E221" t="s">
         <v>9</v>
@@ -4753,13 +4759,13 @@
     </row>
     <row r="222" spans="2:9">
       <c r="B222" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="D222" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E222" t="s">
         <v>9</v>
@@ -4767,13 +4773,13 @@
     </row>
     <row r="223" spans="2:9">
       <c r="B223" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D223" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E223" t="s">
         <v>9</v>
@@ -4781,216 +4787,213 @@
     </row>
     <row r="224" spans="2:9">
       <c r="B224" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="D224" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="E224" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="2:9">
       <c r="B225" s="3">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>263</v>
+      </c>
+      <c r="D225" t="s">
+        <v>264</v>
+      </c>
+      <c r="E225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="B226" s="3">
         <v>7</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>273</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D226" t="s">
         <v>20</v>
       </c>
-      <c r="E225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9">
-      <c r="B227" s="3">
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9">
+      <c r="B228" s="3">
         <v>23</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>274</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="228" spans="2:9" ht="24">
-      <c r="B228" s="1" t="s">
+    <row r="229" spans="2:9" ht="24">
+      <c r="B229" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E228" s="1" t="s">
+      <c r="D229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="F229" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G229" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I228" s="2" t="s">
+      <c r="I229" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9">
-      <c r="B229" s="3">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>275</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="G229" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="230" spans="2:9">
       <c r="B230" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>276</v>
-      </c>
-      <c r="D230" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="2:9">
       <c r="B231" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D231" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="2:9">
       <c r="B232" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D232" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="2:9">
       <c r="B233" s="3">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>282</v>
+      </c>
+      <c r="D233" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" s="3">
         <v>5</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>261</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D234" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E233" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9">
-      <c r="B235" s="9">
+      <c r="E234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" s="9">
         <v>23</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>305</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="236" spans="2:9" ht="24">
-      <c r="B236" s="1" t="s">
+    <row r="237" spans="2:9" ht="24">
+      <c r="B237" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E236" s="1" t="s">
+      <c r="D237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F237" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G237" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H236" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I236" s="2" t="s">
+      <c r="I237" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9">
-      <c r="B237" s="3">
-        <v>1</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E237" t="s">
-        <v>9</v>
-      </c>
-      <c r="G237" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="238" spans="2:9">
       <c r="B238" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D238" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="E238" t="s">
-        <v>15</v>
-      </c>
-      <c r="F238">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="2:9">
       <c r="B239" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D239" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E239" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F239">
         <v>50</v>
@@ -4998,83 +5001,86 @@
     </row>
     <row r="240" spans="2:9">
       <c r="B240" s="3">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>310</v>
+        <v>3</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>285</v>
       </c>
       <c r="D240" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E240" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="F240">
+        <v>50</v>
       </c>
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D241" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D242" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E242" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D243" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E243" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D244" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E244" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D245" t="s">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="E245" t="s">
         <v>9</v>
@@ -5082,13 +5088,13 @@
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="3">
-        <v>11</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>108</v>
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>320</v>
       </c>
       <c r="D246" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E246" t="s">
         <v>9</v>
@@ -5096,43 +5102,57 @@
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="D247" t="s">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c r="E247" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D248" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E248" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="3">
+        <v>13</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D249" t="s">
+        <v>324</v>
+      </c>
+      <c r="E249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" s="3">
         <v>14</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C250" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D250" t="s">
         <v>326</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E250" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5146,13 +5166,13 @@
           <x14:formula1>
             <xm:f>Sheet3!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G73:G79 G4 G88 G172 G94:G95 G114 G124 G129 G109:G111 G134 G144 G151 G158 G165 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G191 G199 G219 G184:G186 G229 G237 G34:G37 G44</xm:sqref>
+          <xm:sqref>G73:G79 G4 G88 G172 G94:G95 G114 G124 G129 G109:G111 G134 G144 G151 G158 G165 G9:G31 G39:G42 G48:G50 G53:G60 G63:G70 G192 G200 G220 G184:G186 G230 G238 G34:G37 G44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36A04974-1981-4BA4-B0FF-10FFE7E02263}">
           <x14:formula1>
             <xm:f>Sheet3!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E73:E84 E4:E5 E88:E90 E219:E225 E94:E105 E114:E120 E124:E125 E129:E130 E109:E111 E134:E140 E144:E147 E151:E154 E158:E161 E165:E168 E9:E31 E48:E50 E53:E60 E63:E70 E199:E215 E191:E194 E172:E181 E184:E187 E229 E233 E34:E45 E237:E249</xm:sqref>
+          <xm:sqref>E73:E84 E4:E5 E88:E90 E220:E226 E94:E105 E114:E120 E124:E125 E129:E130 E109:E111 E134:E140 E144:E147 E151:E154 E158:E161 E165:E168 E9:E31 E48:E50 E53:E60 E63:E70 E200:E216 E192:E195 E172:E181 E184:E188 E230 E234 E34:E45 E238:E250</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="985" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97AA5AE3-9AED-4E83-8FE9-8405AD906C5F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1186,6 +1186,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1487,27 +1491,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
   <dimension ref="B2:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.125" customWidth="1"/>
-    <col min="2" max="2" width="4.75" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="15.125" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="14.25" customWidth="1"/>
-    <col min="20" max="22" width="20.25" customWidth="1"/>
-    <col min="23" max="24" width="17.625" customWidth="1"/>
-    <col min="25" max="25" width="19.75" customWidth="1"/>
-    <col min="26" max="26" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" customWidth="1"/>
+    <col min="15" max="15" width="11.69921875" customWidth="1"/>
+    <col min="16" max="16" width="15.8984375" customWidth="1"/>
+    <col min="17" max="17" width="16.8984375" customWidth="1"/>
+    <col min="18" max="18" width="14.09765625" customWidth="1"/>
+    <col min="19" max="19" width="14.19921875" customWidth="1"/>
+    <col min="20" max="22" width="20.19921875" customWidth="1"/>
+    <col min="23" max="24" width="17.59765625" customWidth="1"/>
+    <col min="25" max="25" width="19.69921875" customWidth="1"/>
+    <col min="26" max="26" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -1521,7 +1525,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24">
+    <row r="3" spans="2:9" ht="24.6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="24">
+    <row r="8" spans="2:9" ht="24.6">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="24">
+    <row r="33" spans="2:9" ht="24.6">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="24">
+    <row r="47" spans="2:9" ht="24.6">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="24">
+    <row r="52" spans="2:9" ht="24.6">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="24">
+    <row r="62" spans="2:9" ht="24.6">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="24">
+    <row r="72" spans="2:9" ht="24.6">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="24">
+    <row r="87" spans="2:9" ht="24.6">
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="24">
+    <row r="93" spans="2:9" ht="24.6">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="24">
+    <row r="108" spans="2:9" ht="24.6">
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="24">
+    <row r="113" spans="2:9" ht="24.6">
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="24">
+    <row r="123" spans="2:9" ht="24.6">
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="24">
+    <row r="128" spans="2:9" ht="24.6">
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="24">
+    <row r="133" spans="2:9" ht="24.6">
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="24">
+    <row r="143" spans="2:9" ht="24.6">
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="24">
+    <row r="150" spans="2:9" ht="24.6">
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
@@ -3831,7 +3835,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="24">
+    <row r="157" spans="2:9" ht="24.6">
       <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="24">
+    <row r="164" spans="2:9" ht="24.6">
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="24">
+    <row r="171" spans="2:9" ht="24.6">
       <c r="B171" s="1" t="s">
         <v>0</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="24">
+    <row r="183" spans="2:9" ht="24.6">
       <c r="B183" s="1" t="s">
         <v>0</v>
       </c>
@@ -4303,7 +4307,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="24">
+    <row r="191" spans="2:9" ht="24.6">
       <c r="B191" s="1" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="24">
+    <row r="199" spans="2:9" ht="24.6">
       <c r="B199" s="1" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +4704,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="24">
+    <row r="219" spans="2:9" ht="24.6">
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="24">
+    <row r="229" spans="2:9" ht="24.6">
       <c r="B229" s="1" t="s">
         <v>0</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="24">
+    <row r="237" spans="2:9" ht="24.6">
       <c r="B237" s="1" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5192,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">

--- a/file/เวิร์กบุ๊ก11.xlsx
+++ b/file/เวิร์กบุ๊ก11.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="985" documentId="8_{10939E4D-56A2-452A-9D91-254C987C1498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97AA5AE3-9AED-4E83-8FE9-8405AD906C5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87CB523D-7DFE-4713-8F78-FE8C47CCAC9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1186,10 +1186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,27 +1487,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EB036E-F0E7-49AA-B51A-27E33825B230}">
   <dimension ref="B2:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" customWidth="1"/>
-    <col min="14" max="14" width="15.09765625" customWidth="1"/>
-    <col min="15" max="15" width="11.69921875" customWidth="1"/>
-    <col min="16" max="16" width="15.8984375" customWidth="1"/>
-    <col min="17" max="17" width="16.8984375" customWidth="1"/>
-    <col min="18" max="18" width="14.09765625" customWidth="1"/>
-    <col min="19" max="19" width="14.19921875" customWidth="1"/>
-    <col min="20" max="22" width="20.19921875" customWidth="1"/>
-    <col min="23" max="24" width="17.59765625" customWidth="1"/>
-    <col min="25" max="25" width="19.69921875" customWidth="1"/>
-    <col min="26" max="26" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="15.125" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="16" max="16" width="15.875" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="14.25" customWidth="1"/>
+    <col min="20" max="22" width="20.25" customWidth="1"/>
+    <col min="23" max="24" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="19.75" customWidth="1"/>
+    <col min="26" max="26" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -1525,7 +1521,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.6">
+    <row r="3" spans="2:9" ht="24">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="24.6">
+    <row r="8" spans="2:9" ht="24">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +1994,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="24.6">
+    <row r="33" spans="2:9" ht="24">
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="24.6">
+    <row r="47" spans="2:9" ht="24">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="24.6">
+    <row r="52" spans="2:9" ht="24">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="24.6">
+    <row r="62" spans="2:9" ht="24">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2607,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="24.6">
+    <row r="72" spans="2:9" ht="24">
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2834,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="24.6">
+    <row r="87" spans="2:9" ht="24">
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="24.6">
+    <row r="93" spans="2:9" ht="24">
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
@@ -3150,7 +3146,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="24.6">
+    <row r="108" spans="2:9" ht="24">
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="2:9" ht="24.6">
+    <row r="113" spans="2:9" ht="24">
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3361,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="24.6">
+    <row r="123" spans="2:9" ht="24">
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3432,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="2:9" ht="24.6">
+    <row r="128" spans="2:9" ht="24">
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
@@ -3507,7 +3503,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="24.6">
+    <row r="133" spans="2:9" ht="24">
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +3639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="2:9" ht="24.6">
+    <row r="143" spans="2:9" ht="24">
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
@@ -3739,7 +3735,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="2:9" ht="24.6">
+    <row r="150" spans="2:9" ht="24">
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3831,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="2:9" ht="24.6">
+    <row r="157" spans="2:9" ht="24">
       <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
@@ -3931,7 +3927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="24.6">
+    <row r="164" spans="2:9" ht="24">
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
@@ -4027,7 +4023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="2:9" ht="24.6">
+    <row r="171" spans="2:9" ht="24">
       <c r="B171" s="1" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4195,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="183" spans="2:9" ht="24.6">
+    <row r="183" spans="2:9" ht="24">
       <c r="B183" s="1" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4303,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="2:9" ht="24.6">
+    <row r="191" spans="2:9" ht="24">
       <c r="B191" s="1" t="s">
         <v>0</v>
       </c>
@@ -4417,7 +4413,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="24.6">
+    <row r="199" spans="2:9" ht="24">
       <c r="B199" s="1" t="s">
         <v>0</v>
       </c>
@@ -4704,7 +4700,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="24.6">
+    <row r="219" spans="2:9" ht="24">
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +4838,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="2:9" ht="24.6">
+    <row r="229" spans="2:9" ht="24">
       <c r="B229" s="1" t="s">
         <v>0</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="237" spans="2:9" ht="24.6">
+    <row r="237" spans="2:9" ht="24">
       <c r="B237" s="1" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +5188,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
